--- a/Transect Temperature Data Sheet.xlsx
+++ b/Transect Temperature Data Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="18">
   <si>
     <t>observer</t>
   </si>
@@ -87,10 +87,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,22 +158,37 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="M364" sqref="M364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,13 +501,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -477,7 +515,7 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>43610</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -501,7 +539,7 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>0.3972222222222222</v>
       </c>
     </row>
@@ -509,7 +547,7 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>43610</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -533,7 +571,7 @@
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>0.3972222222222222</v>
       </c>
     </row>
@@ -541,7 +579,7 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>43610</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -565,7 +603,7 @@
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0.3979166666666667</v>
       </c>
     </row>
@@ -573,7 +611,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>43610</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -597,7 +635,7 @@
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.39861111111111108</v>
       </c>
     </row>
@@ -605,7 +643,7 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>43610</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -629,7 +667,7 @@
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0.39930555555555558</v>
       </c>
     </row>
@@ -637,7 +675,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>43610</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -661,7 +699,7 @@
       <c r="I7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0.40138888888888885</v>
       </c>
     </row>
@@ -669,7 +707,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>43610</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -693,7 +731,7 @@
       <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>0.40138888888888885</v>
       </c>
     </row>
@@ -701,7 +739,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>43610</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -725,7 +763,7 @@
       <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>0.40069444444444446</v>
       </c>
     </row>
@@ -733,7 +771,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>43610</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -757,7 +795,7 @@
       <c r="I10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>0.40069444444444446</v>
       </c>
     </row>
@@ -765,7 +803,7 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>43610</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -789,7 +827,7 @@
       <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>0.39999999999999997</v>
       </c>
     </row>
@@ -797,7 +835,7 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>43610</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -821,7 +859,7 @@
       <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>0.40277777777777773</v>
       </c>
     </row>
@@ -829,7 +867,7 @@
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>43610</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -853,7 +891,7 @@
       <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>0.40277777777777773</v>
       </c>
     </row>
@@ -861,7 +899,7 @@
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>43610</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -885,7 +923,7 @@
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>0.40347222222222223</v>
       </c>
     </row>
@@ -893,7 +931,7 @@
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>43610</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -917,7 +955,7 @@
       <c r="I15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>0.40416666666666662</v>
       </c>
     </row>
@@ -925,7 +963,7 @@
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>43610</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -949,7 +987,7 @@
       <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>0.40486111111111112</v>
       </c>
     </row>
@@ -957,7 +995,7 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>43610</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -981,7 +1019,7 @@
       <c r="I17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>0.41319444444444442</v>
       </c>
     </row>
@@ -989,7 +1027,7 @@
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>43610</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1013,7 +1051,7 @@
       <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>0.41388888888888892</v>
       </c>
     </row>
@@ -1021,7 +1059,7 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>43610</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1045,7 +1083,7 @@
       <c r="I19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>0.41388888888888892</v>
       </c>
     </row>
@@ -1053,7 +1091,7 @@
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>43610</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1077,7 +1115,7 @@
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>0.4145833333333333</v>
       </c>
     </row>
@@ -1085,7 +1123,7 @@
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>43610</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1109,7 +1147,7 @@
       <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>0.4145833333333333</v>
       </c>
     </row>
@@ -1117,7 +1155,7 @@
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>43610</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1141,7 +1179,7 @@
       <c r="I22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>0.41736111111111113</v>
       </c>
     </row>
@@ -1149,7 +1187,7 @@
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>43610</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1173,7 +1211,7 @@
       <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>0.41736111111111113</v>
       </c>
     </row>
@@ -1181,7 +1219,7 @@
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>43610</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1205,7 +1243,7 @@
       <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -1213,7 +1251,7 @@
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>43610</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1237,7 +1275,7 @@
       <c r="I25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -1245,7 +1283,7 @@
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>43610</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1269,7 +1307,7 @@
       <c r="I26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>0.41597222222222219</v>
       </c>
     </row>
@@ -1277,7 +1315,7 @@
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>43610</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1301,7 +1339,7 @@
       <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>0.41875000000000001</v>
       </c>
     </row>
@@ -1309,7 +1347,7 @@
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>43610</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1333,7 +1371,7 @@
       <c r="I28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>0.41944444444444445</v>
       </c>
     </row>
@@ -1341,7 +1379,7 @@
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>43610</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1365,7 +1403,7 @@
       <c r="I29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>0.41944444444444445</v>
       </c>
     </row>
@@ -1373,7 +1411,7 @@
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>43610</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1397,7 +1435,7 @@
       <c r="I30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>0.4201388888888889</v>
       </c>
     </row>
@@ -1405,7 +1443,7 @@
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>43610</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1429,7 +1467,7 @@
       <c r="I31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>0.4201388888888889</v>
       </c>
     </row>
@@ -1437,7 +1475,7 @@
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>43610</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1461,7 +1499,7 @@
       <c r="I32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>0.4291666666666667</v>
       </c>
     </row>
@@ -1469,7 +1507,7 @@
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>43610</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1493,7 +1531,7 @@
       <c r="I33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>0.4291666666666667</v>
       </c>
     </row>
@@ -1501,7 +1539,7 @@
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>43610</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1525,7 +1563,7 @@
       <c r="I34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>0.43055555555555558</v>
       </c>
     </row>
@@ -1533,7 +1571,7 @@
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>43610</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1557,7 +1595,7 @@
       <c r="I35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>0.43055555555555558</v>
       </c>
     </row>
@@ -1565,7 +1603,7 @@
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>43610</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1589,7 +1627,7 @@
       <c r="I36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>0.43124999999999997</v>
       </c>
     </row>
@@ -1597,7 +1635,7 @@
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>43610</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1621,7 +1659,7 @@
       <c r="I37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>0.4284722222222222</v>
       </c>
     </row>
@@ -1629,7 +1667,7 @@
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>43610</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1653,7 +1691,7 @@
       <c r="I38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>0.42777777777777781</v>
       </c>
     </row>
@@ -1661,7 +1699,7 @@
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>43610</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1685,7 +1723,7 @@
       <c r="I39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <v>0.42777777777777781</v>
       </c>
     </row>
@@ -1693,7 +1731,7 @@
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>43610</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1717,7 +1755,7 @@
       <c r="I40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <v>0.42708333333333331</v>
       </c>
     </row>
@@ -1725,7 +1763,7 @@
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>43610</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1749,7 +1787,7 @@
       <c r="I41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="4">
         <v>0.42638888888888887</v>
       </c>
     </row>
@@ -1757,7 +1795,7 @@
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>43610</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1781,7 +1819,7 @@
       <c r="I42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <v>0.42430555555555555</v>
       </c>
     </row>
@@ -1789,7 +1827,7 @@
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>43610</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1813,7 +1851,7 @@
       <c r="I43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <v>0.42430555555555555</v>
       </c>
     </row>
@@ -1821,7 +1859,7 @@
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>43610</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1845,7 +1883,7 @@
       <c r="I44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>0.42499999999999999</v>
       </c>
     </row>
@@ -1853,7 +1891,7 @@
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>43610</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1877,7 +1915,7 @@
       <c r="I45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <v>0.42499999999999999</v>
       </c>
     </row>
@@ -1885,7 +1923,7 @@
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>43610</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1909,7 +1947,7 @@
       <c r="I46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="4">
         <v>0.42569444444444443</v>
       </c>
     </row>
@@ -1917,7 +1955,7 @@
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>43610</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1941,7 +1979,7 @@
       <c r="I47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="4">
         <v>0.45763888888888887</v>
       </c>
     </row>
@@ -1949,7 +1987,7 @@
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>43610</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1973,7 +2011,7 @@
       <c r="I48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="4">
         <v>0.45833333333333331</v>
       </c>
     </row>
@@ -1981,7 +2019,7 @@
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>43610</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2005,7 +2043,7 @@
       <c r="I49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>0.45902777777777781</v>
       </c>
     </row>
@@ -2013,7 +2051,7 @@
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>43610</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2037,7 +2075,7 @@
       <c r="I50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="4">
         <v>0.45902777777777781</v>
       </c>
     </row>
@@ -2045,7 +2083,7 @@
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>43610</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2069,7 +2107,7 @@
       <c r="I51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="4">
         <v>0.4597222222222222</v>
       </c>
     </row>
@@ -2077,7 +2115,7 @@
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>43610</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2101,7 +2139,7 @@
       <c r="I52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="4">
         <v>0.46249999999999997</v>
       </c>
     </row>
@@ -2109,7 +2147,7 @@
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>43610</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2133,7 +2171,7 @@
       <c r="I53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="4">
         <v>0.46249999999999997</v>
       </c>
     </row>
@@ -2141,7 +2179,7 @@
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>43610</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2165,7 +2203,7 @@
       <c r="I54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="4">
         <v>0.46180555555555558</v>
       </c>
     </row>
@@ -2173,7 +2211,7 @@
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>43610</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2197,7 +2235,7 @@
       <c r="I55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="4">
         <v>0.46111111111111108</v>
       </c>
     </row>
@@ -2205,7 +2243,7 @@
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>43610</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2229,7 +2267,7 @@
       <c r="I56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="4">
         <v>0.46111111111111108</v>
       </c>
     </row>
@@ -2237,7 +2275,7 @@
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>43610</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2261,7 +2299,7 @@
       <c r="I57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="4">
         <v>0.46388888888888885</v>
       </c>
     </row>
@@ -2269,7 +2307,7 @@
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>43610</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2293,7 +2331,7 @@
       <c r="I58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="4">
         <v>0.46458333333333335</v>
       </c>
     </row>
@@ -2301,7 +2339,7 @@
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>43610</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2325,7 +2363,7 @@
       <c r="I59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="4">
         <v>0.46458333333333335</v>
       </c>
     </row>
@@ -2333,7 +2371,7 @@
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>43610</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2357,7 +2395,7 @@
       <c r="I60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="4">
         <v>0.46527777777777773</v>
       </c>
     </row>
@@ -2365,7 +2403,7 @@
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>43610</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2389,7 +2427,7 @@
       <c r="I61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="4">
         <v>0.46527777777777773</v>
       </c>
     </row>
@@ -2397,7 +2435,7 @@
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>43610</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2421,7 +2459,7 @@
       <c r="I62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="4">
         <v>0.47430555555555554</v>
       </c>
     </row>
@@ -2429,7 +2467,7 @@
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>43610</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2453,7 +2491,7 @@
       <c r="I63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="4">
         <v>0.47430555555555554</v>
       </c>
     </row>
@@ -2461,7 +2499,7 @@
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>43610</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2485,7 +2523,7 @@
       <c r="I64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="4">
         <v>0.47500000000000003</v>
       </c>
     </row>
@@ -2493,7 +2531,7 @@
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>43610</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2517,7 +2555,7 @@
       <c r="I65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="4">
         <v>0.47500000000000003</v>
       </c>
     </row>
@@ -2525,7 +2563,7 @@
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>43610</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2549,7 +2587,7 @@
       <c r="I66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="4">
         <v>0.47569444444444442</v>
       </c>
     </row>
@@ -2557,7 +2595,7 @@
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>43610</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2581,7 +2619,7 @@
       <c r="I67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="4">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -2589,7 +2627,7 @@
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>43610</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2613,7 +2651,7 @@
       <c r="I68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68" s="4">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -2621,7 +2659,7 @@
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>43610</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2645,7 +2683,7 @@
       <c r="I69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="4">
         <v>0.47847222222222219</v>
       </c>
     </row>
@@ -2653,7 +2691,7 @@
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>43610</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2677,7 +2715,7 @@
       <c r="I70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="4">
         <v>0.4777777777777778</v>
       </c>
     </row>
@@ -2685,7 +2723,7 @@
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>43610</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2709,7 +2747,7 @@
       <c r="I71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="4">
         <v>0.4770833333333333</v>
       </c>
     </row>
@@ -2717,7 +2755,7 @@
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>43610</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2741,7 +2779,7 @@
       <c r="I72" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="4">
         <v>0.47986111111111113</v>
       </c>
     </row>
@@ -2749,7 +2787,7 @@
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>43610</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2773,7 +2811,7 @@
       <c r="I73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="4">
         <v>0.48055555555555557</v>
       </c>
     </row>
@@ -2781,7 +2819,7 @@
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>43610</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2805,7 +2843,7 @@
       <c r="I74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J74" s="4">
         <v>0.48125000000000001</v>
       </c>
     </row>
@@ -2813,7 +2851,7 @@
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>43610</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2837,7 +2875,7 @@
       <c r="I75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="4">
         <v>6.458333333333334E-2</v>
       </c>
     </row>
@@ -2845,7 +2883,7 @@
       <c r="A76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>43610</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2869,7 +2907,7 @@
       <c r="I76" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J76" s="4">
         <v>0.48194444444444445</v>
       </c>
     </row>
@@ -2877,7 +2915,7 @@
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>43610</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2901,7 +2939,7 @@
       <c r="I77" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="4">
         <v>0.48819444444444443</v>
       </c>
     </row>
@@ -2909,7 +2947,7 @@
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>43610</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2933,7 +2971,7 @@
       <c r="I78" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78" s="4">
         <v>0.48819444444444443</v>
       </c>
     </row>
@@ -2941,7 +2979,7 @@
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>43610</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2965,7 +3003,7 @@
       <c r="I79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79" s="4">
         <v>0.48958333333333331</v>
       </c>
     </row>
@@ -2973,7 +3011,7 @@
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>43610</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2997,7 +3035,7 @@
       <c r="I80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J80" s="5">
+      <c r="J80" s="4">
         <v>0.48958333333333331</v>
       </c>
     </row>
@@ -3005,7 +3043,7 @@
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>43610</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3029,7 +3067,7 @@
       <c r="I81" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81" s="4">
         <v>0.49027777777777781</v>
       </c>
     </row>
@@ -3037,7 +3075,7 @@
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -3061,7 +3099,7 @@
       <c r="I82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="4">
         <v>0.49374999999999997</v>
       </c>
     </row>
@@ -3069,7 +3107,7 @@
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>43610</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -3093,7 +3131,7 @@
       <c r="I83" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J83" s="5">
+      <c r="J83" s="4">
         <v>0.45833333333333331</v>
       </c>
     </row>
@@ -3101,7 +3139,7 @@
       <c r="A84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>43610</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3125,7 +3163,7 @@
       <c r="I84" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J84" s="5">
+      <c r="J84" s="4">
         <v>0.49305555555555558</v>
       </c>
     </row>
@@ -3133,7 +3171,7 @@
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>43610</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -3157,7 +3195,7 @@
       <c r="I85" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85" s="4">
         <v>0.49305555555555558</v>
       </c>
     </row>
@@ -3165,7 +3203,7 @@
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <v>43610</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -3189,7 +3227,7 @@
       <c r="I86" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86" s="4">
         <v>0.49236111111111108</v>
       </c>
     </row>
@@ -3197,7 +3235,7 @@
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>43610</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -3221,7 +3259,7 @@
       <c r="I87" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J87" s="4">
         <v>0.49444444444444446</v>
       </c>
     </row>
@@ -3229,7 +3267,7 @@
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>43610</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -3253,7 +3291,7 @@
       <c r="I88" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J88" s="4">
         <v>0.49444444444444446</v>
       </c>
     </row>
@@ -3261,7 +3299,7 @@
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <v>43610</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3285,7 +3323,7 @@
       <c r="I89" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J89" s="5">
+      <c r="J89" s="4">
         <v>0.49513888888888885</v>
       </c>
     </row>
@@ -3293,7 +3331,7 @@
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>43610</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3317,7 +3355,7 @@
       <c r="I90" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J90" s="4">
         <v>0.49583333333333335</v>
       </c>
     </row>
@@ -3325,7 +3363,7 @@
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>43610</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3349,7 +3387,7 @@
       <c r="I91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91" s="4">
         <v>0.49583333333333335</v>
       </c>
     </row>
@@ -3357,7 +3395,7 @@
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>43610</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -3381,7 +3419,7 @@
       <c r="I92" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J92" s="5">
+      <c r="J92" s="4">
         <v>0.50138888888888888</v>
       </c>
     </row>
@@ -3389,7 +3427,7 @@
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <v>43610</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -3413,7 +3451,7 @@
       <c r="I93" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J93" s="5">
+      <c r="J93" s="4">
         <v>0.50138888888888888</v>
       </c>
     </row>
@@ -3421,7 +3459,7 @@
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <v>43610</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -3445,7 +3483,7 @@
       <c r="I94" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J94" s="5">
+      <c r="J94" s="4">
         <v>0.50208333333333333</v>
       </c>
     </row>
@@ -3453,7 +3491,7 @@
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>43610</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -3477,7 +3515,7 @@
       <c r="I95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J95" s="5">
+      <c r="J95" s="4">
         <v>0.50208333333333333</v>
       </c>
     </row>
@@ -3485,7 +3523,7 @@
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>43610</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3509,7 +3547,7 @@
       <c r="I96" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J96" s="5">
+      <c r="J96" s="4">
         <v>0.50277777777777777</v>
       </c>
     </row>
@@ -3517,7 +3555,7 @@
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <v>43610</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -3541,7 +3579,7 @@
       <c r="I97" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J97" s="4">
         <v>0.50555555555555554</v>
       </c>
     </row>
@@ -3549,7 +3587,7 @@
       <c r="A98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <v>43610</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3573,7 +3611,7 @@
       <c r="I98" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J98" s="5">
+      <c r="J98" s="4">
         <v>0.50486111111111109</v>
       </c>
     </row>
@@ -3581,7 +3619,7 @@
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <v>43610</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -3605,7 +3643,7 @@
       <c r="I99" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99" s="4">
         <v>0.50486111111111109</v>
       </c>
     </row>
@@ -3613,7 +3651,7 @@
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <v>43610</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -3637,7 +3675,7 @@
       <c r="I100" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J100" s="5">
+      <c r="J100" s="4">
         <v>0.50416666666666665</v>
       </c>
     </row>
@@ -3645,7 +3683,7 @@
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>43610</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -3669,7 +3707,7 @@
       <c r="I101" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J101" s="5">
+      <c r="J101" s="4">
         <v>0.50347222222222221</v>
       </c>
     </row>
@@ -3677,7 +3715,7 @@
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>43610</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -3701,7 +3739,7 @@
       <c r="I102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J102" s="5">
+      <c r="J102" s="4">
         <v>0.50763888888888886</v>
       </c>
     </row>
@@ -3709,7 +3747,7 @@
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <v>43610</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -3733,7 +3771,7 @@
       <c r="I103" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J103" s="5">
+      <c r="J103" s="4">
         <v>0.5083333333333333</v>
       </c>
     </row>
@@ -3741,7 +3779,7 @@
       <c r="A104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <v>43610</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -3765,7 +3803,7 @@
       <c r="I104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J104" s="5">
+      <c r="J104" s="4">
         <v>0.5083333333333333</v>
       </c>
     </row>
@@ -3773,7 +3811,7 @@
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>43610</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -3797,7 +3835,7 @@
       <c r="I105" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J105" s="5">
+      <c r="J105" s="4">
         <v>0.50902777777777775</v>
       </c>
     </row>
@@ -3805,7 +3843,7 @@
       <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>43610</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -3829,7 +3867,7 @@
       <c r="I106" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J106" s="5">
+      <c r="J106" s="4">
         <v>0.50972222222222219</v>
       </c>
     </row>
@@ -3837,7 +3875,7 @@
       <c r="A107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <v>43610</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -3861,7 +3899,7 @@
       <c r="I107" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J107" s="5">
+      <c r="J107" s="4">
         <v>0.375</v>
       </c>
     </row>
@@ -3869,7 +3907,7 @@
       <c r="A108" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="3">
         <v>43610</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -3893,7 +3931,7 @@
       <c r="I108" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="4">
         <v>0.3756944444444445</v>
       </c>
     </row>
@@ -3901,7 +3939,7 @@
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <v>43610</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -3925,7 +3963,7 @@
       <c r="I109" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J109" s="5">
+      <c r="J109" s="4">
         <v>0.3756944444444445</v>
       </c>
     </row>
@@ -3933,7 +3971,7 @@
       <c r="A110" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <v>43610</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -3957,7 +3995,7 @@
       <c r="I110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J110" s="5">
+      <c r="J110" s="4">
         <v>0.37638888888888888</v>
       </c>
     </row>
@@ -3965,7 +4003,7 @@
       <c r="A111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <v>43610</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -3989,7 +4027,7 @@
       <c r="I111" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J111" s="5">
+      <c r="J111" s="4">
         <v>0.37638888888888888</v>
       </c>
     </row>
@@ -3997,7 +4035,7 @@
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <v>43610</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -4021,7 +4059,7 @@
       <c r="I112" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J112" s="5">
+      <c r="J112" s="4">
         <v>0.38055555555555554</v>
       </c>
     </row>
@@ -4029,7 +4067,7 @@
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="3">
         <v>43610</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -4053,7 +4091,7 @@
       <c r="I113" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J113" s="5">
+      <c r="J113" s="4">
         <v>0.38055555555555554</v>
       </c>
     </row>
@@ -4061,7 +4099,7 @@
       <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="3">
         <v>43610</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -4085,7 +4123,7 @@
       <c r="I114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="5">
+      <c r="J114" s="4">
         <v>0.38125000000000003</v>
       </c>
     </row>
@@ -4093,7 +4131,7 @@
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="3">
         <v>43610</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -4117,7 +4155,7 @@
       <c r="I115" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J115" s="5">
+      <c r="J115" s="4">
         <v>0.38194444444444442</v>
       </c>
     </row>
@@ -4125,7 +4163,7 @@
       <c r="A116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <v>43610</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -4149,7 +4187,7 @@
       <c r="I116" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J116" s="5">
+      <c r="J116" s="4">
         <v>0.38263888888888892</v>
       </c>
     </row>
@@ -4157,7 +4195,7 @@
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>43610</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4181,7 +4219,7 @@
       <c r="I117" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J117" s="5">
+      <c r="J117" s="4">
         <v>0.37847222222222227</v>
       </c>
     </row>
@@ -4189,7 +4227,7 @@
       <c r="A118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <v>43610</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -4213,7 +4251,7 @@
       <c r="I118" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J118" s="5">
+      <c r="J118" s="4">
         <v>0.37847222222222227</v>
       </c>
     </row>
@@ -4221,7 +4259,7 @@
       <c r="A119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="3">
         <v>43610</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -4245,7 +4283,7 @@
       <c r="I119" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J119" s="5">
+      <c r="J119" s="4">
         <v>0.37777777777777777</v>
       </c>
     </row>
@@ -4253,7 +4291,7 @@
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="3">
         <v>43610</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -4277,7 +4315,7 @@
       <c r="I120" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J120" s="5">
+      <c r="J120" s="4">
         <v>0.37708333333333338</v>
       </c>
     </row>
@@ -4285,7 +4323,7 @@
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="3">
         <v>43610</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -4309,15 +4347,7689 @@
       <c r="I121" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J121" s="5">
+      <c r="J121" s="4">
         <v>0.37708333333333338</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D122" s="2"/>
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" s="4">
+        <v>0.55138888888888882</v>
+      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D123" s="2"/>
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2">
+        <v>3</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1">
+        <v>25</v>
+      </c>
+      <c r="H123" s="1">
+        <v>41.4</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" s="4">
+        <v>0.55277777777777781</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1">
+        <v>50</v>
+      </c>
+      <c r="H124" s="1">
+        <v>40.1</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" s="4">
+        <v>0.5541666666666667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="1">
+        <v>3</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>75</v>
+      </c>
+      <c r="H125" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" s="4">
+        <v>0.5541666666666667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="1">
+        <v>3</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1">
+        <v>100</v>
+      </c>
+      <c r="H126" s="1">
+        <v>34.4</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" s="4">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="1">
+        <v>3</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" s="1">
+        <v>2</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" s="4">
+        <v>0.55694444444444446</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="1">
+        <v>3</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="1">
+        <v>2</v>
+      </c>
+      <c r="G128" s="1">
+        <v>25</v>
+      </c>
+      <c r="H128" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="1">
+        <v>2</v>
+      </c>
+      <c r="G129" s="1">
+        <v>50</v>
+      </c>
+      <c r="H129" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="1">
+        <v>3</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" s="1">
+        <v>2</v>
+      </c>
+      <c r="G130" s="1">
+        <v>75</v>
+      </c>
+      <c r="H130" s="1">
+        <v>42.4</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="1">
+        <v>3</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" s="1">
+        <v>2</v>
+      </c>
+      <c r="G131" s="1">
+        <v>100</v>
+      </c>
+      <c r="H131" s="1">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" s="4">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="1">
+        <v>3</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="1">
+        <v>3</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1">
+        <v>42.1</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" s="4">
+        <v>0.55833333333333335</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="1">
+        <v>3</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="1">
+        <v>3</v>
+      </c>
+      <c r="G133" s="1">
+        <v>25</v>
+      </c>
+      <c r="H133" s="1">
+        <v>41.9</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133" s="4">
+        <v>0.55833333333333335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="1">
+        <v>3</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="1">
+        <v>3</v>
+      </c>
+      <c r="G134" s="1">
+        <v>50</v>
+      </c>
+      <c r="H134" s="1">
+        <v>42.9</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" s="4">
+        <v>0.55902777777777779</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="1">
+        <v>3</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="1">
+        <v>3</v>
+      </c>
+      <c r="G135" s="1">
+        <v>75</v>
+      </c>
+      <c r="H135" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" s="4">
+        <v>0.55972222222222223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="1">
+        <v>3</v>
+      </c>
+      <c r="G136" s="1">
+        <v>100</v>
+      </c>
+      <c r="H136" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" s="4">
+        <v>0.55972222222222223</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="1">
+        <v>3</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G137" s="5">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137" s="4">
+        <v>0.57361111111111118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="1">
+        <v>3</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1</v>
+      </c>
+      <c r="G138" s="6">
+        <v>25</v>
+      </c>
+      <c r="H138" s="1">
+        <v>58.2</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" s="4">
+        <v>0.57361111111111118</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="1">
+        <v>3</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" s="6">
+        <v>50</v>
+      </c>
+      <c r="H139" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" s="4">
+        <v>0.57430555555555551</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="1">
+        <v>3</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1</v>
+      </c>
+      <c r="G140" s="6">
+        <v>75</v>
+      </c>
+      <c r="H140" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140" s="4">
+        <v>0.57430555555555551</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="1">
+        <v>3</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+      <c r="G141" s="6">
+        <v>100</v>
+      </c>
+      <c r="H141" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" s="4">
+        <v>0.57500000000000007</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="1">
+        <v>3</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="1">
+        <v>2</v>
+      </c>
+      <c r="G142" s="5">
+        <v>0</v>
+      </c>
+      <c r="H142" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142" s="4">
+        <v>0.57708333333333328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="1">
+        <v>3</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="1">
+        <v>2</v>
+      </c>
+      <c r="G143" s="6">
+        <v>25</v>
+      </c>
+      <c r="H143" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" s="4">
+        <v>0.57638888888888895</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="1">
+        <v>3</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="1">
+        <v>2</v>
+      </c>
+      <c r="G144" s="6">
+        <v>50</v>
+      </c>
+      <c r="H144" s="1">
+        <v>47.6</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" s="4">
+        <v>0.57638888888888895</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="1">
+        <v>3</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" s="1">
+        <v>2</v>
+      </c>
+      <c r="G145" s="6">
+        <v>75</v>
+      </c>
+      <c r="H145" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" s="4">
+        <v>0.5756944444444444</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="1">
+        <v>3</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="1">
+        <v>2</v>
+      </c>
+      <c r="G146" s="6">
+        <v>100</v>
+      </c>
+      <c r="H146" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" s="4">
+        <v>0.5756944444444444</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="1">
+        <v>3</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="1">
+        <v>3</v>
+      </c>
+      <c r="G147" s="5">
+        <v>0</v>
+      </c>
+      <c r="H147" s="1">
+        <v>48.1</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" s="4">
+        <v>0.57777777777777783</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="1">
+        <v>3</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="1">
+        <v>3</v>
+      </c>
+      <c r="G148" s="6">
+        <v>25</v>
+      </c>
+      <c r="H148" s="1">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148" s="4">
+        <v>0.57777777777777783</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="1">
+        <v>3</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="1">
+        <v>3</v>
+      </c>
+      <c r="G149" s="6">
+        <v>50</v>
+      </c>
+      <c r="H149" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149" s="4">
+        <v>0.57847222222222217</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="1">
+        <v>3</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="1">
+        <v>3</v>
+      </c>
+      <c r="G150" s="6">
+        <v>75</v>
+      </c>
+      <c r="H150" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" s="4">
+        <v>0.57916666666666672</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="1">
+        <v>3</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="1">
+        <v>3</v>
+      </c>
+      <c r="G151" s="6">
+        <v>100</v>
+      </c>
+      <c r="H151" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" s="4">
+        <v>0.57916666666666672</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="1">
+        <v>3</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
+      <c r="G152" s="5">
+        <v>0</v>
+      </c>
+      <c r="H152" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" s="4">
+        <v>0.59236111111111112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="1">
+        <v>3</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
+      <c r="G153" s="6">
+        <v>25</v>
+      </c>
+      <c r="H153" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" s="4">
+        <v>0.59236111111111112</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="1">
+        <v>3</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+      <c r="G154" s="6">
+        <v>50</v>
+      </c>
+      <c r="H154" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" s="4">
+        <v>0.59305555555555556</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="1">
+        <v>3</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G155" s="6">
+        <v>75</v>
+      </c>
+      <c r="H155" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" s="4">
+        <v>0.59305555555555556</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="1">
+        <v>3</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="G156" s="6">
+        <v>100</v>
+      </c>
+      <c r="H156" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" s="4">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="1">
+        <v>3</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="1">
+        <v>2</v>
+      </c>
+      <c r="G157" s="5">
+        <v>0</v>
+      </c>
+      <c r="H157" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" s="4">
+        <v>0.59652777777777777</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="1">
+        <v>3</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="1">
+        <v>2</v>
+      </c>
+      <c r="G158" s="6">
+        <v>25</v>
+      </c>
+      <c r="H158" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" s="4">
+        <v>0.59583333333333333</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="1">
+        <v>3</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="1">
+        <v>2</v>
+      </c>
+      <c r="G159" s="6">
+        <v>50</v>
+      </c>
+      <c r="H159" s="1">
+        <v>44</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" s="4">
+        <v>0.59583333333333333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="1">
+        <v>3</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="1">
+        <v>2</v>
+      </c>
+      <c r="G160" s="6">
+        <v>75</v>
+      </c>
+      <c r="H160" s="1">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" s="4">
+        <v>0.59513888888888888</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="1">
+        <v>3</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="1">
+        <v>2</v>
+      </c>
+      <c r="G161" s="6">
+        <v>100</v>
+      </c>
+      <c r="H161" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" s="4">
+        <v>0.59513888888888888</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="1">
+        <v>3</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="1">
+        <v>3</v>
+      </c>
+      <c r="G162" s="5">
+        <v>0</v>
+      </c>
+      <c r="H162" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" s="4">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="1">
+        <v>3</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="1">
+        <v>3</v>
+      </c>
+      <c r="G163" s="6">
+        <v>25</v>
+      </c>
+      <c r="H163" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" s="4">
+        <v>0.59791666666666665</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="1">
+        <v>3</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="1">
+        <v>3</v>
+      </c>
+      <c r="G164" s="6">
+        <v>50</v>
+      </c>
+      <c r="H164" s="1">
+        <v>42</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" s="4">
+        <v>0.59861111111111109</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="1">
+        <v>3</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="1">
+        <v>3</v>
+      </c>
+      <c r="G165" s="6">
+        <v>75</v>
+      </c>
+      <c r="H165" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" s="4">
+        <v>0.59861111111111109</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="1">
+        <v>3</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="1">
+        <v>3</v>
+      </c>
+      <c r="G166" s="6">
+        <v>100</v>
+      </c>
+      <c r="H166" s="1">
+        <v>49</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" s="4">
+        <v>0.59930555555555554</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="1">
+        <v>3</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="1">
+        <v>1</v>
+      </c>
+      <c r="G167" s="5">
+        <v>0</v>
+      </c>
+      <c r="H167" s="1">
+        <v>41.4</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" s="4">
+        <v>0.6020833333333333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="1">
+        <v>3</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" s="6">
+        <v>25</v>
+      </c>
+      <c r="H168" s="1">
+        <v>45</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" s="4">
+        <v>0.60277777777777775</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="1">
+        <v>3</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1</v>
+      </c>
+      <c r="G169" s="6">
+        <v>50</v>
+      </c>
+      <c r="H169" s="1">
+        <v>49</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" s="4">
+        <v>0.60277777777777775</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="1">
+        <v>3</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="G170" s="6">
+        <v>75</v>
+      </c>
+      <c r="H170" s="1">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" s="4">
+        <v>0.60486111111111118</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="1">
+        <v>3</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1</v>
+      </c>
+      <c r="G171" s="6">
+        <v>100</v>
+      </c>
+      <c r="H171" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" s="4">
+        <v>0.60555555555555551</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="1">
+        <v>3</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" s="1">
+        <v>2</v>
+      </c>
+      <c r="G172" s="5">
+        <v>0</v>
+      </c>
+      <c r="H172" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172" s="4">
+        <v>0.60833333333333328</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="1">
+        <v>3</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" s="1">
+        <v>2</v>
+      </c>
+      <c r="G173" s="6">
+        <v>25</v>
+      </c>
+      <c r="H173" s="1">
+        <v>53</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" s="4">
+        <v>6.5972222222222224E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="1">
+        <v>3</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" s="1">
+        <v>2</v>
+      </c>
+      <c r="G174" s="6">
+        <v>50</v>
+      </c>
+      <c r="H174" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J174" s="4">
+        <v>0.60763888888888895</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="1">
+        <v>3</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="1">
+        <v>2</v>
+      </c>
+      <c r="G175" s="6">
+        <v>75</v>
+      </c>
+      <c r="H175" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175" s="4">
+        <v>0.6069444444444444</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="1">
+        <v>3</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" s="1">
+        <v>2</v>
+      </c>
+      <c r="G176" s="6">
+        <v>100</v>
+      </c>
+      <c r="H176" s="1">
+        <v>48</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J176" s="4">
+        <v>0.60625000000000007</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="1">
+        <v>3</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" s="1">
+        <v>3</v>
+      </c>
+      <c r="G177" s="5">
+        <v>0</v>
+      </c>
+      <c r="H177" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J177" s="4">
+        <v>0.60902777777777783</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="1">
+        <v>3</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="1">
+        <v>3</v>
+      </c>
+      <c r="G178" s="6">
+        <v>25</v>
+      </c>
+      <c r="H178" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178" s="4">
+        <v>0.60902777777777783</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="1">
+        <v>3</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" s="1">
+        <v>3</v>
+      </c>
+      <c r="G179" s="5">
+        <v>50</v>
+      </c>
+      <c r="H179" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179" s="4">
+        <v>0.60972222222222217</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="1">
+        <v>3</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" s="1">
+        <v>3</v>
+      </c>
+      <c r="G180" s="5">
+        <v>75</v>
+      </c>
+      <c r="H180" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" s="4">
+        <v>0.61041666666666672</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="3">
+        <v>43613</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="1">
+        <v>3</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="1">
+        <v>3</v>
+      </c>
+      <c r="G181" s="5">
+        <v>100</v>
+      </c>
+      <c r="H181" s="1">
+        <v>42.6</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" s="4">
+        <v>0.61041666666666672</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="1">
+        <v>4</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="1">
+        <v>3</v>
+      </c>
+      <c r="G182" s="1">
+        <v>0</v>
+      </c>
+      <c r="H182" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" s="4">
+        <v>0.51180555555555551</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="1">
+        <v>4</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="1">
+        <v>3</v>
+      </c>
+      <c r="G183" s="1">
+        <v>25</v>
+      </c>
+      <c r="H183" s="1">
+        <v>49</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J183" s="4">
+        <v>0.51180555555555551</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="1">
+        <v>4</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="1">
+        <v>3</v>
+      </c>
+      <c r="G184" s="1">
+        <v>50</v>
+      </c>
+      <c r="H184" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J184" s="4">
+        <v>0.51250000000000007</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="1">
+        <v>4</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="1">
+        <v>3</v>
+      </c>
+      <c r="G185" s="1">
+        <v>75</v>
+      </c>
+      <c r="H185" s="1">
+        <v>48.1</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185" s="4">
+        <v>0.5131944444444444</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="1">
+        <v>4</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="1">
+        <v>3</v>
+      </c>
+      <c r="G186" s="1">
+        <v>100</v>
+      </c>
+      <c r="H186" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" s="4">
+        <v>0.5131944444444444</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="1">
+        <v>4</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="1">
+        <v>2</v>
+      </c>
+      <c r="G187" s="1">
+        <v>0</v>
+      </c>
+      <c r="H187" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187" s="4">
+        <v>0.51597222222222217</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="1">
+        <v>4</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" s="1">
+        <v>2</v>
+      </c>
+      <c r="G188" s="1">
+        <v>25</v>
+      </c>
+      <c r="H188" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188" s="4">
+        <v>0.51527777777777783</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="1">
+        <v>4</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" s="1">
+        <v>2</v>
+      </c>
+      <c r="G189" s="1">
+        <v>50</v>
+      </c>
+      <c r="H189" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J189" s="4">
+        <v>0.51527777777777783</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="1">
+        <v>4</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="1">
+        <v>2</v>
+      </c>
+      <c r="G190" s="1">
+        <v>75</v>
+      </c>
+      <c r="H190" s="1">
+        <v>47.6</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190" s="4">
+        <v>0.51458333333333328</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="1">
+        <v>4</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" s="1">
+        <v>2</v>
+      </c>
+      <c r="G191" s="1">
+        <v>100</v>
+      </c>
+      <c r="H191" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="1">
+        <v>4</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="1">
+        <v>1</v>
+      </c>
+      <c r="G192" s="1">
+        <v>0</v>
+      </c>
+      <c r="H192" s="1">
+        <v>34.1</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192" s="4">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="1">
+        <v>4</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="1">
+        <v>1</v>
+      </c>
+      <c r="G193" s="1">
+        <v>25</v>
+      </c>
+      <c r="H193" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="1">
+        <v>4</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="1">
+        <v>1</v>
+      </c>
+      <c r="G194" s="1">
+        <v>50</v>
+      </c>
+      <c r="H194" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="1">
+        <v>4</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="1">
+        <v>1</v>
+      </c>
+      <c r="G195" s="1">
+        <v>75</v>
+      </c>
+      <c r="H195" s="1">
+        <v>50</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J195" s="4">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="1">
+        <v>4</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" s="1">
+        <v>1</v>
+      </c>
+      <c r="G196" s="1">
+        <v>100</v>
+      </c>
+      <c r="H196" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J196" s="4">
+        <v>0.5180555555555556</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="1">
+        <v>4</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F197" s="1">
+        <v>2</v>
+      </c>
+      <c r="G197" s="5">
+        <v>0</v>
+      </c>
+      <c r="H197" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197" s="4">
+        <v>0.52152777777777781</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="1">
+        <v>4</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F198" s="1">
+        <v>2</v>
+      </c>
+      <c r="G198" s="6">
+        <v>25</v>
+      </c>
+      <c r="H198" s="1">
+        <v>54</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="1">
+        <v>4</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F199" s="1">
+        <v>2</v>
+      </c>
+      <c r="G199" s="6">
+        <v>50</v>
+      </c>
+      <c r="H199" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="1">
+        <v>4</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F200" s="1">
+        <v>2</v>
+      </c>
+      <c r="G200" s="6">
+        <v>75</v>
+      </c>
+      <c r="H200" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200" s="4">
+        <v>0.52013888888888882</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="1">
+        <v>4</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201" s="1">
+        <v>2</v>
+      </c>
+      <c r="G201" s="6">
+        <v>100</v>
+      </c>
+      <c r="H201" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201" s="4">
+        <v>0.51944444444444449</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="1">
+        <v>4</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F202" s="1">
+        <v>1</v>
+      </c>
+      <c r="G202" s="5">
+        <v>0</v>
+      </c>
+      <c r="H202" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J202" s="4">
+        <v>0.5229166666666667</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="1">
+        <v>4</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203" s="1">
+        <v>1</v>
+      </c>
+      <c r="G203" s="6">
+        <v>25</v>
+      </c>
+      <c r="H203" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J203" s="4">
+        <v>0.5229166666666667</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="1">
+        <v>4</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F204" s="1">
+        <v>1</v>
+      </c>
+      <c r="G204" s="6">
+        <v>50</v>
+      </c>
+      <c r="H204" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J204" s="4">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="1">
+        <v>4</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F205" s="1">
+        <v>1</v>
+      </c>
+      <c r="G205" s="6">
+        <v>75</v>
+      </c>
+      <c r="H205" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J205" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="1">
+        <v>4</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F206" s="1">
+        <v>1</v>
+      </c>
+      <c r="G206" s="6">
+        <v>100</v>
+      </c>
+      <c r="H206" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J206" s="4">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="1">
+        <v>4</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F207" s="1">
+        <v>3</v>
+      </c>
+      <c r="G207" s="5">
+        <v>0</v>
+      </c>
+      <c r="H207" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J207" s="4">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="1">
+        <v>4</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F208" s="1">
+        <v>3</v>
+      </c>
+      <c r="G208" s="6">
+        <v>25</v>
+      </c>
+      <c r="H208" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J208" s="4">
+        <v>0.52569444444444446</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="1">
+        <v>4</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F209" s="1">
+        <v>3</v>
+      </c>
+      <c r="G209" s="6">
+        <v>50</v>
+      </c>
+      <c r="H209" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J209" s="4">
+        <v>0.52638888888888891</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="1">
+        <v>4</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F210" s="1">
+        <v>3</v>
+      </c>
+      <c r="G210" s="6">
+        <v>75</v>
+      </c>
+      <c r="H210" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J210" s="4">
+        <v>0.52569444444444446</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="1">
+        <v>4</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F211" s="1">
+        <v>3</v>
+      </c>
+      <c r="G211" s="6">
+        <v>100</v>
+      </c>
+      <c r="H211" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J211" s="4">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="1">
+        <v>4</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" s="1">
+        <v>1</v>
+      </c>
+      <c r="G212" s="5">
+        <v>0</v>
+      </c>
+      <c r="H212" s="1">
+        <v>53</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J212" s="4">
+        <v>0.54097222222222219</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="1">
+        <v>4</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F213" s="1">
+        <v>1</v>
+      </c>
+      <c r="G213" s="6">
+        <v>25</v>
+      </c>
+      <c r="H213" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J213" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="1">
+        <v>4</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" s="1">
+        <v>1</v>
+      </c>
+      <c r="G214" s="6">
+        <v>50</v>
+      </c>
+      <c r="H214" s="1">
+        <v>48</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J214" s="4">
+        <v>0.54236111111111118</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="1">
+        <v>4</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F215" s="1">
+        <v>1</v>
+      </c>
+      <c r="G215" s="6">
+        <v>75</v>
+      </c>
+      <c r="H215" s="1">
+        <v>47.1</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J215" s="4">
+        <v>0.54305555555555551</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="1">
+        <v>4</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F216" s="1">
+        <v>1</v>
+      </c>
+      <c r="G216" s="6">
+        <v>100</v>
+      </c>
+      <c r="H216" s="1">
+        <v>45</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J216" s="4">
+        <v>0.54305555555555551</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="1">
+        <v>4</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" s="1">
+        <v>2</v>
+      </c>
+      <c r="G217" s="5">
+        <v>0</v>
+      </c>
+      <c r="H217" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217" s="4">
+        <v>0.54583333333333328</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="1">
+        <v>4</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F218" s="1">
+        <v>2</v>
+      </c>
+      <c r="G218" s="6">
+        <v>25</v>
+      </c>
+      <c r="H218" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J218" s="4">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="1">
+        <v>4</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219" s="1">
+        <v>2</v>
+      </c>
+      <c r="G219" s="6">
+        <v>50</v>
+      </c>
+      <c r="H219" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J219" s="4">
+        <v>0.5444444444444444</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="1">
+        <v>4</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" s="1">
+        <v>2</v>
+      </c>
+      <c r="G220" s="6">
+        <v>75</v>
+      </c>
+      <c r="H220" s="1">
+        <v>51.7</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J220" s="4">
+        <v>0.54375000000000007</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="1">
+        <v>4</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F221" s="1">
+        <v>2</v>
+      </c>
+      <c r="G221" s="6">
+        <v>100</v>
+      </c>
+      <c r="H221" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J221" s="4">
+        <v>0.54375000000000007</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="1">
+        <v>4</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F222" s="1">
+        <v>3</v>
+      </c>
+      <c r="G222" s="5">
+        <v>0</v>
+      </c>
+      <c r="H222" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J222" s="4">
+        <v>0.54722222222222217</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="1">
+        <v>4</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F223" s="1">
+        <v>3</v>
+      </c>
+      <c r="G223" s="6">
+        <v>25</v>
+      </c>
+      <c r="H223" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J223" s="4">
+        <v>0.54722222222222217</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224" s="1">
+        <v>4</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" s="1">
+        <v>3</v>
+      </c>
+      <c r="G224" s="6">
+        <v>50</v>
+      </c>
+      <c r="H224" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J224" s="4">
+        <v>0.54791666666666672</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="1">
+        <v>4</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F225" s="1">
+        <v>3</v>
+      </c>
+      <c r="G225" s="6">
+        <v>75</v>
+      </c>
+      <c r="H225" s="1">
+        <v>47.3</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J225" s="4">
+        <v>0.54791666666666672</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" s="1">
+        <v>4</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F226" s="1">
+        <v>3</v>
+      </c>
+      <c r="G226" s="6">
+        <v>100</v>
+      </c>
+      <c r="H226" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J226" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" s="1">
+        <v>4</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227" s="1">
+        <v>1</v>
+      </c>
+      <c r="G227" s="5">
+        <v>0</v>
+      </c>
+      <c r="H227" s="1">
+        <v>51.7</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J227" s="4">
+        <v>0.55347222222222225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" s="1">
+        <v>4</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F228" s="1">
+        <v>1</v>
+      </c>
+      <c r="G228" s="6">
+        <v>25</v>
+      </c>
+      <c r="H228" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J228" s="4">
+        <v>0.5541666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="1">
+        <v>4</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229" s="1">
+        <v>1</v>
+      </c>
+      <c r="G229" s="6">
+        <v>50</v>
+      </c>
+      <c r="H229" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J229" s="4">
+        <v>0.5541666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" s="1">
+        <v>4</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230" s="1">
+        <v>1</v>
+      </c>
+      <c r="G230" s="6">
+        <v>75</v>
+      </c>
+      <c r="H230" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J230" s="4">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="1">
+        <v>4</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F231" s="1">
+        <v>1</v>
+      </c>
+      <c r="G231" s="6">
+        <v>100</v>
+      </c>
+      <c r="H231" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J231" s="4">
+        <v>0.55486111111111114</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="1">
+        <v>4</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" s="1">
+        <v>2</v>
+      </c>
+      <c r="G232" s="5">
+        <v>0</v>
+      </c>
+      <c r="H232" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J232" s="4">
+        <v>0.55763888888888891</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" s="1">
+        <v>4</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" s="1">
+        <v>2</v>
+      </c>
+      <c r="G233" s="6">
+        <v>25</v>
+      </c>
+      <c r="H233" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J233" s="4">
+        <v>0.55694444444444446</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="1">
+        <v>4</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" s="1">
+        <v>2</v>
+      </c>
+      <c r="G234" s="6">
+        <v>50</v>
+      </c>
+      <c r="H234" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J234" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="1">
+        <v>4</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235" s="1">
+        <v>2</v>
+      </c>
+      <c r="G235" s="6">
+        <v>75</v>
+      </c>
+      <c r="H235" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J235" s="4">
+        <v>0.55625000000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="1">
+        <v>4</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F236" s="1">
+        <v>2</v>
+      </c>
+      <c r="G236" s="6">
+        <v>100</v>
+      </c>
+      <c r="H236" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J236" s="4">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="1">
+        <v>4</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237" s="1">
+        <v>3</v>
+      </c>
+      <c r="G237" s="5">
+        <v>0</v>
+      </c>
+      <c r="H237" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J237" s="4">
+        <v>0.55763888888888891</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="1">
+        <v>4</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" s="1">
+        <v>3</v>
+      </c>
+      <c r="G238" s="6">
+        <v>25</v>
+      </c>
+      <c r="H238" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J238" s="4">
+        <v>0.55833333333333335</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="1">
+        <v>4</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F239" s="1">
+        <v>3</v>
+      </c>
+      <c r="G239" s="6">
+        <v>50</v>
+      </c>
+      <c r="H239" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J239" s="4">
+        <v>0.55902777777777779</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="1">
+        <v>4</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" s="1">
+        <v>3</v>
+      </c>
+      <c r="G240" s="6">
+        <v>75</v>
+      </c>
+      <c r="H240" s="1">
+        <v>56.6</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J240" s="4">
+        <v>0.55902777777777779</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" s="3">
+        <v>43614</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="1">
+        <v>4</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241" s="1">
+        <v>3</v>
+      </c>
+      <c r="G241" s="6">
+        <v>100</v>
+      </c>
+      <c r="H241" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J241" s="4">
+        <v>0.55972222222222223</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="1">
+        <v>3</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F242" s="1">
+        <v>3</v>
+      </c>
+      <c r="G242" s="5">
+        <v>0</v>
+      </c>
+      <c r="H242" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J242" s="4">
+        <v>0.50763888888888886</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="1">
+        <v>3</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243" s="1">
+        <v>3</v>
+      </c>
+      <c r="G243" s="6">
+        <v>25</v>
+      </c>
+      <c r="H243" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J243" s="4">
+        <v>0.5083333333333333</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" s="1">
+        <v>3</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" s="1">
+        <v>3</v>
+      </c>
+      <c r="G244" s="6">
+        <v>50</v>
+      </c>
+      <c r="H244" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J244" s="4">
+        <v>0.50902777777777775</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="1">
+        <v>3</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245" s="1">
+        <v>3</v>
+      </c>
+      <c r="G245" s="6">
+        <v>75</v>
+      </c>
+      <c r="H245" s="1">
+        <v>53.6</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J245" s="4">
+        <v>0.50972222222222219</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B246" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="1">
+        <v>3</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" s="1">
+        <v>3</v>
+      </c>
+      <c r="G246" s="6">
+        <v>100</v>
+      </c>
+      <c r="H246" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J246" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" s="1">
+        <v>3</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247" s="1">
+        <v>2</v>
+      </c>
+      <c r="G247" s="5">
+        <v>0</v>
+      </c>
+      <c r="H247" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J247" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="1">
+        <v>3</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F248" s="1">
+        <v>2</v>
+      </c>
+      <c r="G248" s="6">
+        <v>25</v>
+      </c>
+      <c r="H248" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J248" s="4">
+        <v>0.5131944444444444</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="1">
+        <v>3</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F249" s="1">
+        <v>2</v>
+      </c>
+      <c r="G249" s="6">
+        <v>50</v>
+      </c>
+      <c r="H249" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J249" s="4">
+        <v>0.51250000000000007</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="1">
+        <v>3</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F250" s="1">
+        <v>2</v>
+      </c>
+      <c r="G250" s="6">
+        <v>75</v>
+      </c>
+      <c r="H250" s="1">
+        <v>51.1</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J250" s="4">
+        <v>0.51180555555555551</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B251" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="1">
+        <v>3</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F251" s="1">
+        <v>2</v>
+      </c>
+      <c r="G251" s="6">
+        <v>100</v>
+      </c>
+      <c r="H251" s="1">
+        <v>56.7</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J251" s="4">
+        <v>0.51180555555555551</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B252" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" s="1">
+        <v>3</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252" s="1">
+        <v>1</v>
+      </c>
+      <c r="G252" s="5">
+        <v>0</v>
+      </c>
+      <c r="H252" s="1">
+        <v>53.6</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J252" s="4">
+        <v>0.51458333333333328</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" s="1">
+        <v>3</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F253" s="1">
+        <v>1</v>
+      </c>
+      <c r="G253" s="6">
+        <v>25</v>
+      </c>
+      <c r="H253" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J253" s="4">
+        <v>0.51458333333333328</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" s="1">
+        <v>3</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F254" s="1">
+        <v>1</v>
+      </c>
+      <c r="G254" s="6">
+        <v>50</v>
+      </c>
+      <c r="H254" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J254" s="4">
+        <v>0.51597222222222217</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B255" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" s="1">
+        <v>3</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" s="1">
+        <v>1</v>
+      </c>
+      <c r="G255" s="6">
+        <v>75</v>
+      </c>
+      <c r="H255" s="1">
+        <v>50</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J255" s="4">
+        <v>0.51597222222222217</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B256" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="1">
+        <v>3</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" s="1">
+        <v>1</v>
+      </c>
+      <c r="G256" s="6">
+        <v>100</v>
+      </c>
+      <c r="H256" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J256" s="4">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B257" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" s="1">
+        <v>3</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" s="1">
+        <v>1</v>
+      </c>
+      <c r="G257" s="5">
+        <v>0</v>
+      </c>
+      <c r="H257" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J257" s="4">
+        <v>0.51874999999999993</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B258" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="1">
+        <v>3</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" s="1">
+        <v>1</v>
+      </c>
+      <c r="G258" s="6">
+        <v>25</v>
+      </c>
+      <c r="H258" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J258" s="4">
+        <v>0.51944444444444449</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B259" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259" s="1">
+        <v>3</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" s="1">
+        <v>1</v>
+      </c>
+      <c r="G259" s="6">
+        <v>50</v>
+      </c>
+      <c r="H259" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J259" s="4">
+        <v>0.51944444444444449</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B260" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D260" s="1">
+        <v>3</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" s="1">
+        <v>1</v>
+      </c>
+      <c r="G260" s="6">
+        <v>75</v>
+      </c>
+      <c r="H260" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J260" s="4">
+        <v>0.52013888888888882</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B261" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" s="1">
+        <v>3</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F261" s="1">
+        <v>1</v>
+      </c>
+      <c r="G261" s="6">
+        <v>100</v>
+      </c>
+      <c r="H261" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J261" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B262" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" s="1">
+        <v>3</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" s="1">
+        <v>2</v>
+      </c>
+      <c r="G262" s="5">
+        <v>0</v>
+      </c>
+      <c r="H262" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J262" s="4">
+        <v>0.5229166666666667</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B263" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" s="1">
+        <v>3</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F263" s="1">
+        <v>2</v>
+      </c>
+      <c r="G263" s="6">
+        <v>25</v>
+      </c>
+      <c r="H263" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J263" s="4">
+        <v>0.5229166666666667</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264" s="1">
+        <v>3</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" s="1">
+        <v>2</v>
+      </c>
+      <c r="G264" s="6">
+        <v>50</v>
+      </c>
+      <c r="H264" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J264" s="4">
+        <v>0.52222222222222225</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B265" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" s="1">
+        <v>3</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F265" s="1">
+        <v>2</v>
+      </c>
+      <c r="G265" s="6">
+        <v>75</v>
+      </c>
+      <c r="H265" s="1">
+        <v>48.1</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J265" s="4">
+        <v>0.52222222222222225</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D266" s="1">
+        <v>3</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" s="1">
+        <v>2</v>
+      </c>
+      <c r="G266" s="6">
+        <v>100</v>
+      </c>
+      <c r="H266" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J266" s="4">
+        <v>0.52152777777777781</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B267" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267" s="1">
+        <v>3</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F267" s="1">
+        <v>3</v>
+      </c>
+      <c r="G267" s="5">
+        <v>0</v>
+      </c>
+      <c r="H267" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J267" s="4">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D268" s="1">
+        <v>3</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268" s="1">
+        <v>3</v>
+      </c>
+      <c r="G268" s="6">
+        <v>25</v>
+      </c>
+      <c r="H268" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J268" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B269" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="1">
+        <v>3</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F269" s="1">
+        <v>3</v>
+      </c>
+      <c r="G269" s="6">
+        <v>50</v>
+      </c>
+      <c r="H269" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J269" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B270" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D270" s="1">
+        <v>3</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F270" s="1">
+        <v>3</v>
+      </c>
+      <c r="G270" s="6">
+        <v>75</v>
+      </c>
+      <c r="H270" s="1">
+        <v>55.2</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J270" s="4">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B271" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D271" s="1">
+        <v>3</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F271" s="1">
+        <v>3</v>
+      </c>
+      <c r="G271" s="6">
+        <v>100</v>
+      </c>
+      <c r="H271" s="1">
+        <v>58.2</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J271" s="4">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B272" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D272" s="1">
+        <v>3</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" s="1">
+        <v>3</v>
+      </c>
+      <c r="G272" s="5">
+        <v>0</v>
+      </c>
+      <c r="H272" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J272" s="4">
+        <v>0.52986111111111112</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B273" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D273" s="1">
+        <v>3</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F273" s="1">
+        <v>3</v>
+      </c>
+      <c r="G273" s="6">
+        <v>25</v>
+      </c>
+      <c r="H273" s="1">
+        <v>60</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J273" s="4">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B274" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274" s="1">
+        <v>3</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F274" s="1">
+        <v>3</v>
+      </c>
+      <c r="G274" s="6">
+        <v>50</v>
+      </c>
+      <c r="H274" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J274" s="4">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275" s="1">
+        <v>3</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F275" s="1">
+        <v>3</v>
+      </c>
+      <c r="G275" s="6">
+        <v>75</v>
+      </c>
+      <c r="H275" s="1">
+        <v>58</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J275" s="4">
+        <v>0.53194444444444444</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D276" s="1">
+        <v>3</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F276" s="1">
+        <v>3</v>
+      </c>
+      <c r="G276" s="6">
+        <v>100</v>
+      </c>
+      <c r="H276" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J276" s="4">
+        <v>0.53263888888888888</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D277" s="1">
+        <v>3</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F277" s="1">
+        <v>2</v>
+      </c>
+      <c r="G277" s="5">
+        <v>0</v>
+      </c>
+      <c r="H277" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J277" s="4">
+        <v>0.53472222222222221</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D278" s="1">
+        <v>3</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F278" s="1">
+        <v>2</v>
+      </c>
+      <c r="G278" s="6">
+        <v>25</v>
+      </c>
+      <c r="H278" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J278" s="4">
+        <v>0.53402777777777777</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B279" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279" s="1">
+        <v>3</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F279" s="1">
+        <v>2</v>
+      </c>
+      <c r="G279" s="6">
+        <v>50</v>
+      </c>
+      <c r="H279" s="1">
+        <v>54</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J279" s="4">
+        <v>0.53402777777777777</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B280" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280" s="1">
+        <v>3</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F280" s="1">
+        <v>2</v>
+      </c>
+      <c r="G280" s="6">
+        <v>75</v>
+      </c>
+      <c r="H280" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J280" s="4">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B281" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" s="1">
+        <v>3</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F281" s="1">
+        <v>2</v>
+      </c>
+      <c r="G281" s="6">
+        <v>100</v>
+      </c>
+      <c r="H281" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J281" s="4">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" s="1">
+        <v>3</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F282" s="1">
+        <v>1</v>
+      </c>
+      <c r="G282" s="5">
+        <v>0</v>
+      </c>
+      <c r="H282" s="1">
+        <v>50</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J282" s="4">
+        <v>0.53541666666666665</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B283" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D283" s="1">
+        <v>3</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F283" s="1">
+        <v>1</v>
+      </c>
+      <c r="G283" s="6">
+        <v>25</v>
+      </c>
+      <c r="H283" s="1">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J283" s="4">
+        <v>0.53541666666666665</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D284" s="1">
+        <v>3</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F284" s="1">
+        <v>1</v>
+      </c>
+      <c r="G284" s="6">
+        <v>50</v>
+      </c>
+      <c r="H284" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J284" s="4">
+        <v>0.53611111111111109</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B285" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" s="1">
+        <v>3</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F285" s="1">
+        <v>1</v>
+      </c>
+      <c r="G285" s="6">
+        <v>75</v>
+      </c>
+      <c r="H285" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J285" s="4">
+        <v>0.53680555555555554</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B286" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" s="1">
+        <v>3</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F286" s="1">
+        <v>1</v>
+      </c>
+      <c r="G286" s="6">
+        <v>100</v>
+      </c>
+      <c r="H286" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J286" s="4">
+        <v>0.53749999999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B287" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D287" s="1">
+        <v>3</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F287" s="1">
+        <v>3</v>
+      </c>
+      <c r="G287" s="5">
+        <v>0</v>
+      </c>
+      <c r="H287" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J287" s="4">
+        <v>0.5395833333333333</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B288" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D288" s="1">
+        <v>3</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F288" s="1">
+        <v>3</v>
+      </c>
+      <c r="G288" s="6">
+        <v>25</v>
+      </c>
+      <c r="H288" s="1">
+        <v>51.7</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J288" s="4">
+        <v>0.54027777777777775</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B289" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" s="1">
+        <v>3</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F289" s="1">
+        <v>3</v>
+      </c>
+      <c r="G289" s="6">
+        <v>50</v>
+      </c>
+      <c r="H289" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J289" s="4">
+        <v>0.54027777777777775</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B290" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D290" s="1">
+        <v>3</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F290" s="1">
+        <v>3</v>
+      </c>
+      <c r="G290" s="6">
+        <v>75</v>
+      </c>
+      <c r="H290" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J290" s="4">
+        <v>0.54097222222222219</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B291" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" s="1">
+        <v>3</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F291" s="1">
+        <v>3</v>
+      </c>
+      <c r="G291" s="6">
+        <v>100</v>
+      </c>
+      <c r="H291" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J291" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B292" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292" s="1">
+        <v>3</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F292" s="1">
+        <v>2</v>
+      </c>
+      <c r="G292" s="5">
+        <v>0</v>
+      </c>
+      <c r="H292" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J292" s="4">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B293" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D293" s="1">
+        <v>3</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F293" s="1">
+        <v>2</v>
+      </c>
+      <c r="G293" s="6">
+        <v>25</v>
+      </c>
+      <c r="H293" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J293" s="4">
+        <v>0.5444444444444444</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B294" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D294" s="1">
+        <v>3</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F294" s="1">
+        <v>2</v>
+      </c>
+      <c r="G294" s="6">
+        <v>50</v>
+      </c>
+      <c r="H294" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J294" s="4">
+        <v>0.54375000000000007</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B295" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D295" s="1">
+        <v>3</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F295" s="1">
+        <v>2</v>
+      </c>
+      <c r="G295" s="6">
+        <v>75</v>
+      </c>
+      <c r="H295" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J295" s="4">
+        <v>0.54305555555555551</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B296" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" s="1">
+        <v>3</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F296" s="1">
+        <v>2</v>
+      </c>
+      <c r="G296" s="6">
+        <v>100</v>
+      </c>
+      <c r="H296" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J296" s="4">
+        <v>0.54305555555555551</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B297" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D297" s="1">
+        <v>3</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F297" s="1">
+        <v>1</v>
+      </c>
+      <c r="G297" s="5">
+        <v>0</v>
+      </c>
+      <c r="H297" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J297" s="4">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B298" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D298" s="1">
+        <v>3</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F298" s="1">
+        <v>1</v>
+      </c>
+      <c r="G298" s="6">
+        <v>25</v>
+      </c>
+      <c r="H298" s="1">
+        <v>62.3</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J298" s="4">
+        <v>0.54583333333333328</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B299" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D299" s="1">
+        <v>3</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F299" s="1">
+        <v>1</v>
+      </c>
+      <c r="G299" s="6">
+        <v>50</v>
+      </c>
+      <c r="H299" s="1">
+        <v>61.1</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J299" s="4">
+        <v>0.54583333333333328</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B300" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D300" s="1">
+        <v>3</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F300" s="1">
+        <v>1</v>
+      </c>
+      <c r="G300" s="6">
+        <v>75</v>
+      </c>
+      <c r="H300" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J300" s="4">
+        <v>0.54652777777777783</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B301" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D301" s="1">
+        <v>3</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F301" s="1">
+        <v>1</v>
+      </c>
+      <c r="G301" s="6">
+        <v>100</v>
+      </c>
+      <c r="H301" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J301" s="4">
+        <v>0.54722222222222217</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B302" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D302" s="1">
+        <v>4</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F302" s="1">
+        <v>3</v>
+      </c>
+      <c r="G302" s="5">
+        <v>0</v>
+      </c>
+      <c r="H302" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J302" s="4">
+        <v>0.55833333333333335</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B303" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D303" s="1">
+        <v>4</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F303" s="1">
+        <v>3</v>
+      </c>
+      <c r="G303" s="5">
+        <v>25</v>
+      </c>
+      <c r="H303" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J303" s="4">
+        <v>0.55833333333333335</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B304" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D304" s="1">
+        <v>4</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F304" s="1">
+        <v>3</v>
+      </c>
+      <c r="G304" s="5">
+        <v>50</v>
+      </c>
+      <c r="H304" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J304" s="4">
+        <v>0.55902777777777779</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B305" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D305" s="1">
+        <v>4</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F305" s="1">
+        <v>3</v>
+      </c>
+      <c r="G305" s="5">
+        <v>75</v>
+      </c>
+      <c r="H305" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J305" s="4">
+        <v>0.55972222222222223</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B306" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D306" s="1">
+        <v>4</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F306" s="1">
+        <v>3</v>
+      </c>
+      <c r="G306" s="5">
+        <v>100</v>
+      </c>
+      <c r="H306" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J306" s="4">
+        <v>0.55972222222222223</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B307" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D307" s="1">
+        <v>4</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F307" s="1">
+        <v>2</v>
+      </c>
+      <c r="G307" s="5">
+        <v>0</v>
+      </c>
+      <c r="H307" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J307" s="4">
+        <v>0.56319444444444444</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B308" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" s="1">
+        <v>4</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F308" s="1">
+        <v>2</v>
+      </c>
+      <c r="G308" s="5">
+        <v>25</v>
+      </c>
+      <c r="H308" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J308" s="4">
+        <v>0.56319444444444444</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B309" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D309" s="1">
+        <v>4</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F309" s="1">
+        <v>2</v>
+      </c>
+      <c r="G309" s="5">
+        <v>50</v>
+      </c>
+      <c r="H309" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J309" s="4">
+        <v>0.56388888888888888</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B310" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D310" s="1">
+        <v>4</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F310" s="1">
+        <v>2</v>
+      </c>
+      <c r="G310" s="5">
+        <v>75</v>
+      </c>
+      <c r="H310" s="1">
+        <v>59.7</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J310" s="4">
+        <v>0.56388888888888888</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B311" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D311" s="1">
+        <v>4</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F311" s="1">
+        <v>2</v>
+      </c>
+      <c r="G311" s="5">
+        <v>100</v>
+      </c>
+      <c r="H311" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J311" s="4">
+        <v>0.56458333333333333</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B312" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D312" s="1">
+        <v>4</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F312" s="1">
+        <v>1</v>
+      </c>
+      <c r="G312" s="5">
+        <v>0</v>
+      </c>
+      <c r="H312" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J312" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B313" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D313" s="1">
+        <v>4</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F313" s="1">
+        <v>1</v>
+      </c>
+      <c r="G313" s="5">
+        <v>25</v>
+      </c>
+      <c r="H313" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J313" s="4">
+        <v>0.56180555555555556</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B314" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314" s="1">
+        <v>4</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F314" s="1">
+        <v>1</v>
+      </c>
+      <c r="G314" s="5">
+        <v>50</v>
+      </c>
+      <c r="H314" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J314" s="4">
+        <v>0.56111111111111112</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B315" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D315" s="1">
+        <v>4</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F315" s="1">
+        <v>1</v>
+      </c>
+      <c r="G315" s="5">
+        <v>75</v>
+      </c>
+      <c r="H315" s="1">
+        <v>52</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J315" s="4">
+        <v>0.56041666666666667</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B316" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" s="1">
+        <v>4</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F316" s="1">
+        <v>1</v>
+      </c>
+      <c r="G316" s="5">
+        <v>100</v>
+      </c>
+      <c r="H316" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J316" s="4">
+        <v>0.56041666666666667</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B317" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" s="1">
+        <v>4</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F317" s="1">
+        <v>1</v>
+      </c>
+      <c r="G317" s="5">
+        <v>0</v>
+      </c>
+      <c r="H317" s="1">
+        <v>47.6</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J317" s="4">
+        <v>0.56805555555555554</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B318" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" s="1">
+        <v>4</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" s="1">
+        <v>1</v>
+      </c>
+      <c r="G318" s="6">
+        <v>25</v>
+      </c>
+      <c r="H318" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J318" s="4">
+        <v>0.56736111111111109</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B319" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" s="1">
+        <v>4</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319" s="1">
+        <v>1</v>
+      </c>
+      <c r="G319" s="6">
+        <v>50</v>
+      </c>
+      <c r="H319" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J319" s="4">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B320" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D320" s="1">
+        <v>4</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F320" s="1">
+        <v>1</v>
+      </c>
+      <c r="G320" s="6">
+        <v>75</v>
+      </c>
+      <c r="H320" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J320" s="4">
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B321" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D321" s="1">
+        <v>4</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F321" s="1">
+        <v>1</v>
+      </c>
+      <c r="G321" s="6">
+        <v>100</v>
+      </c>
+      <c r="H321" s="1">
+        <v>50</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J321" s="4">
+        <v>0.56597222222222221</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B322" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D322" s="1">
+        <v>4</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322" s="1">
+        <v>2</v>
+      </c>
+      <c r="G322" s="5">
+        <v>0</v>
+      </c>
+      <c r="H322" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J322" s="4">
+        <v>0.56874999999999998</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B323" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D323" s="1">
+        <v>4</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F323" s="1">
+        <v>2</v>
+      </c>
+      <c r="G323" s="6">
+        <v>25</v>
+      </c>
+      <c r="H323" s="1">
+        <v>40.9</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J323" s="4">
+        <v>0.56874999999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B324" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324" s="1">
+        <v>4</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F324" s="1">
+        <v>2</v>
+      </c>
+      <c r="G324" s="6">
+        <v>50</v>
+      </c>
+      <c r="H324" s="1">
+        <v>54</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J324" s="4">
+        <v>0.56944444444444442</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B325" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D325" s="1">
+        <v>4</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F325" s="1">
+        <v>2</v>
+      </c>
+      <c r="G325" s="6">
+        <v>75</v>
+      </c>
+      <c r="H325" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J325" s="4">
+        <v>0.57013888888888886</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B326" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D326" s="1">
+        <v>4</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F326" s="1">
+        <v>2</v>
+      </c>
+      <c r="G326" s="6">
+        <v>100</v>
+      </c>
+      <c r="H326" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J326" s="4">
+        <v>0.5708333333333333</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B327" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D327" s="1">
+        <v>4</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F327" s="1">
+        <v>3</v>
+      </c>
+      <c r="G327" s="5">
+        <v>0</v>
+      </c>
+      <c r="H327" s="1">
+        <v>39</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J327" s="4">
+        <v>0.57430555555555551</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B328" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D328" s="1">
+        <v>4</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" s="1">
+        <v>3</v>
+      </c>
+      <c r="G328" s="6">
+        <v>25</v>
+      </c>
+      <c r="H328" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J328" s="4">
+        <v>0.57361111111111118</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B329" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D329" s="1">
+        <v>4</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F329" s="1">
+        <v>3</v>
+      </c>
+      <c r="G329" s="6">
+        <v>50</v>
+      </c>
+      <c r="H329" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J329" s="4">
+        <v>0.57361111111111118</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B330" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D330" s="1">
+        <v>4</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F330" s="1">
+        <v>3</v>
+      </c>
+      <c r="G330" s="6">
+        <v>75</v>
+      </c>
+      <c r="H330" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J330" s="4">
+        <v>0.57222222222222219</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B331" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D331" s="1">
+        <v>4</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" s="1">
+        <v>3</v>
+      </c>
+      <c r="G331" s="6">
+        <v>100</v>
+      </c>
+      <c r="H331" s="1">
+        <v>53</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J331" s="4">
+        <v>0.57152777777777775</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B332" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D332" s="1">
+        <v>4</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F332" s="1">
+        <v>3</v>
+      </c>
+      <c r="G332" s="5">
+        <v>0</v>
+      </c>
+      <c r="H332" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J332" s="4">
+        <v>0.57500000000000007</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B333" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D333" s="1">
+        <v>4</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F333" s="1">
+        <v>3</v>
+      </c>
+      <c r="G333" s="6">
+        <v>25</v>
+      </c>
+      <c r="H333" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J333" s="4">
+        <v>0.5756944444444444</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B334" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334" s="1">
+        <v>4</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F334" s="1">
+        <v>3</v>
+      </c>
+      <c r="G334" s="6">
+        <v>50</v>
+      </c>
+      <c r="H334" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J334" s="4">
+        <v>0.5756944444444444</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B335" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D335" s="1">
+        <v>4</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F335" s="1">
+        <v>3</v>
+      </c>
+      <c r="G335" s="6">
+        <v>75</v>
+      </c>
+      <c r="H335" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J335" s="4">
+        <v>0.57638888888888895</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B336" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D336" s="1">
+        <v>4</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F336" s="1">
+        <v>3</v>
+      </c>
+      <c r="G336" s="6">
+        <v>100</v>
+      </c>
+      <c r="H336" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J336" s="4">
+        <v>0.57708333333333328</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B337" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D337" s="1">
+        <v>4</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F337" s="1">
+        <v>2</v>
+      </c>
+      <c r="G337" s="5">
+        <v>0</v>
+      </c>
+      <c r="H337" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J337" s="4">
+        <v>0.57916666666666672</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B338" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D338" s="1">
+        <v>4</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F338" s="1">
+        <v>2</v>
+      </c>
+      <c r="G338" s="6">
+        <v>25</v>
+      </c>
+      <c r="H338" s="1">
+        <v>50</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J338" s="4">
+        <v>0.57847222222222217</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B339" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D339" s="1">
+        <v>4</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F339" s="1">
+        <v>2</v>
+      </c>
+      <c r="G339" s="6">
+        <v>50</v>
+      </c>
+      <c r="H339" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J339" s="4">
+        <v>0.57847222222222217</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B340" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" s="1">
+        <v>4</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F340" s="1">
+        <v>2</v>
+      </c>
+      <c r="G340" s="6">
+        <v>75</v>
+      </c>
+      <c r="H340" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J340" s="4">
+        <v>0.57777777777777783</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B341" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D341" s="1">
+        <v>4</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F341" s="1">
+        <v>2</v>
+      </c>
+      <c r="G341" s="6">
+        <v>100</v>
+      </c>
+      <c r="H341" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J341" s="4">
+        <v>0.57777777777777783</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B342" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D342" s="1">
+        <v>4</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F342" s="1">
+        <v>1</v>
+      </c>
+      <c r="G342" s="5">
+        <v>0</v>
+      </c>
+      <c r="H342" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J342" s="4">
+        <v>0.57986111111111105</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B343" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D343" s="1">
+        <v>4</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F343" s="1">
+        <v>1</v>
+      </c>
+      <c r="G343" s="6">
+        <v>25</v>
+      </c>
+      <c r="H343" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J343" s="4">
+        <v>0.5805555555555556</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B344" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D344" s="1">
+        <v>4</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F344" s="1">
+        <v>1</v>
+      </c>
+      <c r="G344" s="6">
+        <v>50</v>
+      </c>
+      <c r="H344" s="1">
+        <v>51.7</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J344" s="4">
+        <v>0.5805555555555556</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B345" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D345" s="1">
+        <v>4</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F345" s="1">
+        <v>1</v>
+      </c>
+      <c r="G345" s="6">
+        <v>75</v>
+      </c>
+      <c r="H345" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J345" s="4">
+        <v>0.58124999999999993</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B346" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D346" s="1">
+        <v>4</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F346" s="1">
+        <v>1</v>
+      </c>
+      <c r="G346" s="6">
+        <v>100</v>
+      </c>
+      <c r="H346" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J346" s="4">
+        <v>0.58194444444444449</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B347" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D347" s="1">
+        <v>4</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F347" s="1">
+        <v>3</v>
+      </c>
+      <c r="G347" s="5">
+        <v>0</v>
+      </c>
+      <c r="H347" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J347" s="4">
+        <v>0.58472222222222225</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B348" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D348" s="1">
+        <v>4</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F348" s="1">
+        <v>3</v>
+      </c>
+      <c r="G348" s="6">
+        <v>25</v>
+      </c>
+      <c r="H348" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J348" s="4">
+        <v>0.58472222222222225</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B349" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D349" s="1">
+        <v>4</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F349" s="1">
+        <v>3</v>
+      </c>
+      <c r="G349" s="6">
+        <v>50</v>
+      </c>
+      <c r="H349" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J349" s="4">
+        <v>0.58402777777777781</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B350" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D350" s="1">
+        <v>4</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F350" s="1">
+        <v>3</v>
+      </c>
+      <c r="G350" s="6">
+        <v>75</v>
+      </c>
+      <c r="H350" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J350" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B351" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D351" s="1">
+        <v>4</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F351" s="1">
+        <v>3</v>
+      </c>
+      <c r="G351" s="6">
+        <v>100</v>
+      </c>
+      <c r="H351" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J351" s="4">
+        <v>0.58263888888888882</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B352" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D352" s="1">
+        <v>4</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F352" s="1">
+        <v>2</v>
+      </c>
+      <c r="G352" s="5">
+        <v>0</v>
+      </c>
+      <c r="H352" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J352" s="4">
+        <v>0.58611111111111114</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B353" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D353" s="1">
+        <v>4</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F353" s="1">
+        <v>2</v>
+      </c>
+      <c r="G353" s="6">
+        <v>25</v>
+      </c>
+      <c r="H353" s="1">
+        <v>53</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J353" s="4">
+        <v>0.58611111111111114</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B354" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D354" s="1">
+        <v>4</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F354" s="1">
+        <v>2</v>
+      </c>
+      <c r="G354" s="6">
+        <v>50</v>
+      </c>
+      <c r="H354" s="1">
+        <v>51</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J354" s="4">
+        <v>0.58680555555555558</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B355" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D355" s="1">
+        <v>4</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F355" s="1">
+        <v>2</v>
+      </c>
+      <c r="G355" s="6">
+        <v>75</v>
+      </c>
+      <c r="H355" s="1">
+        <v>51.4</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J355" s="4">
+        <v>0.58680555555555558</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B356" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D356" s="1">
+        <v>4</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F356" s="1">
+        <v>2</v>
+      </c>
+      <c r="G356" s="6">
+        <v>100</v>
+      </c>
+      <c r="H356" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J356" s="4">
+        <v>0.58819444444444446</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B357" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D357" s="1">
+        <v>4</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F357" s="1">
+        <v>1</v>
+      </c>
+      <c r="G357" s="5">
+        <v>0</v>
+      </c>
+      <c r="H357" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J357" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B358" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D358" s="1">
+        <v>4</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F358" s="1">
+        <v>1</v>
+      </c>
+      <c r="G358" s="6">
+        <v>25</v>
+      </c>
+      <c r="H358" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J358" s="4">
+        <v>0.59027777777777779</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B359" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D359" s="1">
+        <v>4</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F359" s="1">
+        <v>1</v>
+      </c>
+      <c r="G359" s="6">
+        <v>50</v>
+      </c>
+      <c r="H359" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J359" s="4">
+        <v>0.58958333333333335</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B360" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D360" s="1">
+        <v>4</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F360" s="1">
+        <v>1</v>
+      </c>
+      <c r="G360" s="5">
+        <v>75</v>
+      </c>
+      <c r="H360" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J360" s="4">
+        <v>0.58888888888888891</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B361" s="3">
+        <v>43616</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D361" s="1">
+        <v>4</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F361" s="1">
+        <v>1</v>
+      </c>
+      <c r="G361" s="5">
+        <v>100</v>
+      </c>
+      <c r="H361" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J361" s="4">
+        <v>0.58819444444444446</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Transect Temperature Data Sheet.xlsx
+++ b/Transect Temperature Data Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="18">
   <si>
     <t>observer</t>
   </si>
@@ -164,8 +164,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -182,13 +186,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J361"/>
+  <dimension ref="A1:J602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="M364" sqref="M364"/>
+    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="J601" sqref="J601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2876,7 +2884,7 @@
         <v>13</v>
       </c>
       <c r="J75" s="4">
-        <v>6.458333333333334E-2</v>
+        <v>0.48125000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -12030,6 +12038,7698 @@
       <c r="J361" s="4">
         <v>0.58819444444444446</v>
       </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B362" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D362" s="1">
+        <v>3</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F362" s="1">
+        <v>1</v>
+      </c>
+      <c r="G362" s="1">
+        <v>0</v>
+      </c>
+      <c r="H362" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J362" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B363" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D363" s="1">
+        <v>3</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F363" s="1">
+        <v>1</v>
+      </c>
+      <c r="G363" s="1">
+        <v>25</v>
+      </c>
+      <c r="H363" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J363" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B364" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D364" s="1">
+        <v>3</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F364" s="1">
+        <v>1</v>
+      </c>
+      <c r="G364" s="1">
+        <v>50</v>
+      </c>
+      <c r="H364" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J364" s="4">
+        <v>0.44861111111111113</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B365" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D365" s="1">
+        <v>3</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F365" s="1">
+        <v>1</v>
+      </c>
+      <c r="G365" s="1">
+        <v>75</v>
+      </c>
+      <c r="H365" s="1">
+        <v>57</v>
+      </c>
+      <c r="I365" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J365" s="4">
+        <v>0.44861111111111113</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B366" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D366" s="1">
+        <v>3</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F366" s="1">
+        <v>1</v>
+      </c>
+      <c r="G366" s="1">
+        <v>100</v>
+      </c>
+      <c r="H366" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="I366" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J366" s="4">
+        <v>0.44930555555555557</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B367" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D367" s="1">
+        <v>3</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F367" s="1">
+        <v>2</v>
+      </c>
+      <c r="G367" s="1">
+        <v>0</v>
+      </c>
+      <c r="H367" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="I367" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J367" s="4">
+        <v>0.45208333333333334</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B368" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" s="1">
+        <v>3</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F368" s="1">
+        <v>2</v>
+      </c>
+      <c r="G368" s="1">
+        <v>25</v>
+      </c>
+      <c r="H368" s="1">
+        <v>53.6</v>
+      </c>
+      <c r="I368" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J368" s="4">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B369" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D369" s="1">
+        <v>3</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F369" s="1">
+        <v>2</v>
+      </c>
+      <c r="G369" s="1">
+        <v>50</v>
+      </c>
+      <c r="H369" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="I369" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J369" s="4">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B370" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370" s="1">
+        <v>3</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F370" s="1">
+        <v>2</v>
+      </c>
+      <c r="G370" s="1">
+        <v>75</v>
+      </c>
+      <c r="H370" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="I370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J370" s="4">
+        <v>0.45069444444444445</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B371" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D371" s="1">
+        <v>3</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F371" s="1">
+        <v>2</v>
+      </c>
+      <c r="G371" s="1">
+        <v>100</v>
+      </c>
+      <c r="H371" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="I371" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J371" s="4">
+        <v>0.45069444444444445</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B372" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D372" s="1">
+        <v>3</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F372" s="1">
+        <v>3</v>
+      </c>
+      <c r="G372" s="1">
+        <v>0</v>
+      </c>
+      <c r="H372" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="I372" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J372" s="4">
+        <v>0.45277777777777778</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B373" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D373" s="1">
+        <v>3</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F373" s="1">
+        <v>3</v>
+      </c>
+      <c r="G373" s="1">
+        <v>25</v>
+      </c>
+      <c r="H373" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="I373" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J373" s="4">
+        <v>0.45347222222222222</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B374" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D374" s="1">
+        <v>3</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F374" s="1">
+        <v>3</v>
+      </c>
+      <c r="G374" s="1">
+        <v>50</v>
+      </c>
+      <c r="H374" s="1">
+        <v>49</v>
+      </c>
+      <c r="I374" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J374" s="4">
+        <v>0.45347222222222222</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B375" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D375" s="1">
+        <v>3</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F375" s="1">
+        <v>3</v>
+      </c>
+      <c r="G375" s="1">
+        <v>75</v>
+      </c>
+      <c r="H375" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="I375" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J375" s="4">
+        <v>0.45416666666666666</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B376" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D376" s="1">
+        <v>3</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F376" s="1">
+        <v>3</v>
+      </c>
+      <c r="G376" s="1">
+        <v>100</v>
+      </c>
+      <c r="H376" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J376" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B377" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D377" s="1">
+        <v>3</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F377" s="1">
+        <v>1</v>
+      </c>
+      <c r="G377" s="5">
+        <v>0</v>
+      </c>
+      <c r="H377" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J377" s="4">
+        <v>0.45694444444444443</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B378" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D378" s="1">
+        <v>3</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F378" s="1">
+        <v>1</v>
+      </c>
+      <c r="G378" s="6">
+        <v>25</v>
+      </c>
+      <c r="H378" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J378" s="4">
+        <v>0.45763888888888887</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B379" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D379" s="1">
+        <v>3</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F379" s="1">
+        <v>1</v>
+      </c>
+      <c r="G379" s="6">
+        <v>50</v>
+      </c>
+      <c r="H379" s="1">
+        <v>51</v>
+      </c>
+      <c r="I379" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J379" s="4">
+        <v>0.45763888888888887</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B380" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D380" s="1">
+        <v>3</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F380" s="1">
+        <v>1</v>
+      </c>
+      <c r="G380" s="6">
+        <v>75</v>
+      </c>
+      <c r="H380" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J380" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B381" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D381" s="1">
+        <v>3</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F381" s="1">
+        <v>1</v>
+      </c>
+      <c r="G381" s="6">
+        <v>100</v>
+      </c>
+      <c r="H381" s="1">
+        <v>54</v>
+      </c>
+      <c r="I381" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J381" s="4">
+        <v>0.45902777777777781</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B382" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D382" s="1">
+        <v>3</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F382" s="1">
+        <v>2</v>
+      </c>
+      <c r="G382" s="5">
+        <v>0</v>
+      </c>
+      <c r="H382" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J382" s="4">
+        <v>0.46111111111111108</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B383" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D383" s="1">
+        <v>3</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F383" s="1">
+        <v>2</v>
+      </c>
+      <c r="G383" s="6">
+        <v>25</v>
+      </c>
+      <c r="H383" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="I383" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J383" s="4">
+        <v>0.4604166666666667</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B384" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D384" s="1">
+        <v>3</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F384" s="1">
+        <v>2</v>
+      </c>
+      <c r="G384" s="6">
+        <v>50</v>
+      </c>
+      <c r="H384" s="1">
+        <v>52.1</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J384" s="4">
+        <v>0.4604166666666667</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B385" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D385" s="1">
+        <v>3</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F385" s="1">
+        <v>2</v>
+      </c>
+      <c r="G385" s="6">
+        <v>75</v>
+      </c>
+      <c r="H385" s="1">
+        <v>55</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J385" s="4">
+        <v>0.4597222222222222</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B386" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D386" s="1">
+        <v>3</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F386" s="1">
+        <v>2</v>
+      </c>
+      <c r="G386" s="6">
+        <v>100</v>
+      </c>
+      <c r="H386" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J386" s="4">
+        <v>0.4597222222222222</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B387" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D387" s="1">
+        <v>3</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F387" s="1">
+        <v>3</v>
+      </c>
+      <c r="G387" s="5">
+        <v>0</v>
+      </c>
+      <c r="H387" s="1">
+        <v>53</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J387" s="4">
+        <v>0.46111111111111108</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B388" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D388" s="1">
+        <v>3</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F388" s="1">
+        <v>3</v>
+      </c>
+      <c r="G388" s="6">
+        <v>25</v>
+      </c>
+      <c r="H388" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="I388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J388" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B389" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D389" s="1">
+        <v>3</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F389" s="1">
+        <v>3</v>
+      </c>
+      <c r="G389" s="6">
+        <v>50</v>
+      </c>
+      <c r="H389" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J389" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B390" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D390" s="1">
+        <v>3</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F390" s="1">
+        <v>3</v>
+      </c>
+      <c r="G390" s="6">
+        <v>75</v>
+      </c>
+      <c r="H390" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="I390" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J390" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B391" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D391" s="1">
+        <v>3</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F391" s="1">
+        <v>3</v>
+      </c>
+      <c r="G391" s="6">
+        <v>100</v>
+      </c>
+      <c r="H391" s="1">
+        <v>56.3</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J391" s="4">
+        <v>0.46249999999999997</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B392" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D392" s="1">
+        <v>3</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F392" s="1">
+        <v>1</v>
+      </c>
+      <c r="G392" s="5">
+        <v>0</v>
+      </c>
+      <c r="H392" s="1">
+        <v>54</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J392" s="4">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B393" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D393" s="1">
+        <v>3</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F393" s="1">
+        <v>1</v>
+      </c>
+      <c r="G393" s="6">
+        <v>25</v>
+      </c>
+      <c r="H393" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J393" s="4">
+        <v>0.46736111111111112</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B394" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D394" s="1">
+        <v>3</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F394" s="1">
+        <v>1</v>
+      </c>
+      <c r="G394" s="6">
+        <v>50</v>
+      </c>
+      <c r="H394" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J394" s="4">
+        <v>0.46736111111111112</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B395" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D395" s="1">
+        <v>3</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F395" s="1">
+        <v>1</v>
+      </c>
+      <c r="G395" s="6">
+        <v>75</v>
+      </c>
+      <c r="H395" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J395" s="4">
+        <v>0.4680555555555555</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B396" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D396" s="1">
+        <v>3</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F396" s="1">
+        <v>1</v>
+      </c>
+      <c r="G396" s="6">
+        <v>100</v>
+      </c>
+      <c r="H396" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J396" s="4">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B397" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D397" s="1">
+        <v>3</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F397" s="1">
+        <v>2</v>
+      </c>
+      <c r="G397" s="5">
+        <v>0</v>
+      </c>
+      <c r="H397" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J397" s="4">
+        <v>0.47083333333333338</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B398" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D398" s="1">
+        <v>3</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F398" s="1">
+        <v>2</v>
+      </c>
+      <c r="G398" s="6">
+        <v>25</v>
+      </c>
+      <c r="H398" s="1">
+        <v>56.3</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J398" s="4">
+        <v>0.47083333333333338</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B399" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D399" s="1">
+        <v>3</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F399" s="1">
+        <v>2</v>
+      </c>
+      <c r="G399" s="6">
+        <v>50</v>
+      </c>
+      <c r="H399" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J399" s="4">
+        <v>0.47013888888888888</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B400" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D400" s="1">
+        <v>3</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F400" s="1">
+        <v>2</v>
+      </c>
+      <c r="G400" s="6">
+        <v>75</v>
+      </c>
+      <c r="H400" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="I400" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J400" s="4">
+        <v>0.4694444444444445</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B401" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D401" s="1">
+        <v>3</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F401" s="1">
+        <v>2</v>
+      </c>
+      <c r="G401" s="6">
+        <v>100</v>
+      </c>
+      <c r="H401" s="1">
+        <v>54</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J401" s="4">
+        <v>0.4694444444444445</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B402" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D402" s="1">
+        <v>3</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F402" s="1">
+        <v>3</v>
+      </c>
+      <c r="G402" s="5">
+        <v>0</v>
+      </c>
+      <c r="H402" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J402" s="4">
+        <v>0.47152777777777777</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B403" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D403" s="1">
+        <v>3</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F403" s="1">
+        <v>3</v>
+      </c>
+      <c r="G403" s="6">
+        <v>25</v>
+      </c>
+      <c r="H403" s="1">
+        <v>57.4</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J403" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B404" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D404" s="1">
+        <v>3</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F404" s="1">
+        <v>3</v>
+      </c>
+      <c r="G404" s="6">
+        <v>50</v>
+      </c>
+      <c r="H404" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J404" s="4">
+        <v>0.47291666666666665</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B405" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D405" s="1">
+        <v>3</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F405" s="1">
+        <v>3</v>
+      </c>
+      <c r="G405" s="6">
+        <v>75</v>
+      </c>
+      <c r="H405" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J405" s="4">
+        <v>0.47291666666666665</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B406" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D406" s="1">
+        <v>3</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F406" s="1">
+        <v>3</v>
+      </c>
+      <c r="G406" s="6">
+        <v>100</v>
+      </c>
+      <c r="H406" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J406" s="4">
+        <v>0.47361111111111115</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B407" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D407" s="1">
+        <v>3</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F407" s="1">
+        <v>3</v>
+      </c>
+      <c r="G407" s="5">
+        <v>0</v>
+      </c>
+      <c r="H407" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J407" s="4">
+        <v>0.47638888888888892</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B408" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D408" s="1">
+        <v>3</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F408" s="1">
+        <v>3</v>
+      </c>
+      <c r="G408" s="6">
+        <v>25</v>
+      </c>
+      <c r="H408" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J408" s="4">
+        <v>0.4770833333333333</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B409" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D409" s="1">
+        <v>3</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F409" s="1">
+        <v>3</v>
+      </c>
+      <c r="G409" s="6">
+        <v>50</v>
+      </c>
+      <c r="H409" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J409" s="4">
+        <v>0.4770833333333333</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B410" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D410" s="1">
+        <v>3</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F410" s="1">
+        <v>3</v>
+      </c>
+      <c r="G410" s="6">
+        <v>75</v>
+      </c>
+      <c r="H410" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J410" s="4">
+        <v>0.4777777777777778</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B411" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D411" s="1">
+        <v>3</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F411" s="1">
+        <v>3</v>
+      </c>
+      <c r="G411" s="6">
+        <v>100</v>
+      </c>
+      <c r="H411" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J411" s="4">
+        <v>0.47847222222222219</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B412" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D412" s="1">
+        <v>3</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F412" s="1">
+        <v>2</v>
+      </c>
+      <c r="G412" s="5">
+        <v>0</v>
+      </c>
+      <c r="H412" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J412" s="4">
+        <v>0.48194444444444445</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B413" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D413" s="1">
+        <v>3</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F413" s="1">
+        <v>2</v>
+      </c>
+      <c r="G413" s="6">
+        <v>25</v>
+      </c>
+      <c r="H413" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J413" s="4">
+        <v>0.48125000000000001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B414" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D414" s="1">
+        <v>3</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F414" s="1">
+        <v>2</v>
+      </c>
+      <c r="G414" s="6">
+        <v>50</v>
+      </c>
+      <c r="H414" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J414" s="4">
+        <v>0.48055555555555557</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B415" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D415" s="1">
+        <v>3</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F415" s="1">
+        <v>2</v>
+      </c>
+      <c r="G415" s="6">
+        <v>75</v>
+      </c>
+      <c r="H415" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J415" s="4">
+        <v>0.48055555555555557</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B416" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D416" s="1">
+        <v>3</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F416" s="1">
+        <v>2</v>
+      </c>
+      <c r="G416" s="6">
+        <v>100</v>
+      </c>
+      <c r="H416" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J416" s="4">
+        <v>0.47986111111111113</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B417" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D417" s="1">
+        <v>3</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F417" s="1">
+        <v>1</v>
+      </c>
+      <c r="G417" s="5">
+        <v>0</v>
+      </c>
+      <c r="H417" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J417" s="4">
+        <v>0.48194444444444445</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B418" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D418" s="1">
+        <v>3</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F418" s="1">
+        <v>1</v>
+      </c>
+      <c r="G418" s="6">
+        <v>25</v>
+      </c>
+      <c r="H418" s="1">
+        <v>58.1</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J418" s="4">
+        <v>0.48194444444444445</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B419" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D419" s="1">
+        <v>3</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F419" s="1">
+        <v>1</v>
+      </c>
+      <c r="G419" s="6">
+        <v>50</v>
+      </c>
+      <c r="H419" s="1">
+        <v>52.1</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J419" s="4">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B420" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D420" s="1">
+        <v>3</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F420" s="1">
+        <v>1</v>
+      </c>
+      <c r="G420" s="6">
+        <v>75</v>
+      </c>
+      <c r="H420" s="1">
+        <v>58</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J420" s="4">
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B421" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D421" s="1">
+        <v>3</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F421" s="1">
+        <v>1</v>
+      </c>
+      <c r="G421" s="6">
+        <v>100</v>
+      </c>
+      <c r="H421" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J421" s="4">
+        <v>0.48402777777777778</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B422" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D422" s="1">
+        <v>4</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F422" s="1">
+        <v>1</v>
+      </c>
+      <c r="G422" s="5">
+        <v>0</v>
+      </c>
+      <c r="H422" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J422" s="4">
+        <v>0.49444444444444446</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B423" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D423" s="1">
+        <v>4</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F423" s="1">
+        <v>1</v>
+      </c>
+      <c r="G423" s="6">
+        <v>25</v>
+      </c>
+      <c r="H423" s="1">
+        <v>57.4</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J423" s="4">
+        <v>0.49444444444444446</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B424" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D424" s="1">
+        <v>4</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F424" s="1">
+        <v>1</v>
+      </c>
+      <c r="G424" s="6">
+        <v>50</v>
+      </c>
+      <c r="H424" s="1">
+        <v>56.3</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J424" s="4">
+        <v>0.49513888888888885</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B425" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D425" s="1">
+        <v>4</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F425" s="1">
+        <v>1</v>
+      </c>
+      <c r="G425" s="6">
+        <v>75</v>
+      </c>
+      <c r="H425" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J425" s="4">
+        <v>0.49583333333333335</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B426" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D426" s="1">
+        <v>4</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F426" s="1">
+        <v>1</v>
+      </c>
+      <c r="G426" s="6">
+        <v>100</v>
+      </c>
+      <c r="H426" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J426" s="4">
+        <v>0.49583333333333335</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B427" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D427" s="1">
+        <v>4</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F427" s="1">
+        <v>2</v>
+      </c>
+      <c r="G427" s="5">
+        <v>0</v>
+      </c>
+      <c r="H427" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J427" s="4">
+        <v>0.49861111111111112</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B428" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D428" s="1">
+        <v>4</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F428" s="1">
+        <v>2</v>
+      </c>
+      <c r="G428" s="6">
+        <v>25</v>
+      </c>
+      <c r="H428" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J428" s="4">
+        <v>0.49791666666666662</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B429" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D429" s="1">
+        <v>4</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F429" s="1">
+        <v>2</v>
+      </c>
+      <c r="G429" s="6">
+        <v>50</v>
+      </c>
+      <c r="H429" s="1">
+        <v>56.3</v>
+      </c>
+      <c r="I429" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J429" s="4">
+        <v>0.49722222222222223</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B430" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D430" s="1">
+        <v>4</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F430" s="1">
+        <v>2</v>
+      </c>
+      <c r="G430" s="6">
+        <v>75</v>
+      </c>
+      <c r="H430" s="1">
+        <v>56</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J430" s="4">
+        <v>0.49722222222222223</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B431" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D431" s="1">
+        <v>4</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F431" s="1">
+        <v>2</v>
+      </c>
+      <c r="G431" s="6">
+        <v>100</v>
+      </c>
+      <c r="H431" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J431" s="4">
+        <v>0.49652777777777773</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B432" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D432" s="1">
+        <v>4</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F432" s="1">
+        <v>3</v>
+      </c>
+      <c r="G432" s="5">
+        <v>0</v>
+      </c>
+      <c r="H432" s="1">
+        <v>52.2</v>
+      </c>
+      <c r="I432" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J432" s="4">
+        <v>0.4993055555555555</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B433" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D433" s="1">
+        <v>4</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F433" s="1">
+        <v>3</v>
+      </c>
+      <c r="G433" s="6">
+        <v>25</v>
+      </c>
+      <c r="H433" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J433" s="4">
+        <v>0.4993055555555555</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B434" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D434" s="1">
+        <v>4</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F434" s="1">
+        <v>3</v>
+      </c>
+      <c r="G434" s="6">
+        <v>50</v>
+      </c>
+      <c r="H434" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J434" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B435" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D435" s="1">
+        <v>4</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F435" s="1">
+        <v>3</v>
+      </c>
+      <c r="G435" s="6">
+        <v>75</v>
+      </c>
+      <c r="H435" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J435" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B436" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D436" s="1">
+        <v>4</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F436" s="1">
+        <v>3</v>
+      </c>
+      <c r="G436" s="6">
+        <v>100</v>
+      </c>
+      <c r="H436" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J436" s="4">
+        <v>0.50069444444444444</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B437" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D437" s="1">
+        <v>4</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F437" s="1">
+        <v>1</v>
+      </c>
+      <c r="G437" s="5">
+        <v>0</v>
+      </c>
+      <c r="H437" s="1">
+        <v>51.7</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J437" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B438" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D438" s="1">
+        <v>4</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F438" s="1">
+        <v>1</v>
+      </c>
+      <c r="G438" s="6">
+        <v>25</v>
+      </c>
+      <c r="H438" s="1">
+        <v>60.4</v>
+      </c>
+      <c r="I438" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J438" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B439" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D439" s="1">
+        <v>4</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F439" s="1">
+        <v>1</v>
+      </c>
+      <c r="G439" s="6">
+        <v>50</v>
+      </c>
+      <c r="H439" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J439" s="4">
+        <v>0.50277777777777777</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B440" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D440" s="1">
+        <v>4</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F440" s="1">
+        <v>1</v>
+      </c>
+      <c r="G440" s="6">
+        <v>75</v>
+      </c>
+      <c r="H440" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="I440" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J440" s="4">
+        <v>0.50208333333333333</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B441" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D441" s="1">
+        <v>4</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F441" s="1">
+        <v>1</v>
+      </c>
+      <c r="G441" s="6">
+        <v>100</v>
+      </c>
+      <c r="H441" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="I441" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J441" s="4">
+        <v>0.50208333333333333</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B442" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D442" s="1">
+        <v>4</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F442" s="1">
+        <v>2</v>
+      </c>
+      <c r="G442" s="5">
+        <v>0</v>
+      </c>
+      <c r="H442" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J442" s="4">
+        <v>0.50416666666666665</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B443" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D443" s="1">
+        <v>4</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F443" s="1">
+        <v>2</v>
+      </c>
+      <c r="G443" s="6">
+        <v>25</v>
+      </c>
+      <c r="H443" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="I443" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J443" s="4">
+        <v>0.50486111111111109</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B444" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D444" s="1">
+        <v>4</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F444" s="1">
+        <v>2</v>
+      </c>
+      <c r="G444" s="6">
+        <v>50</v>
+      </c>
+      <c r="H444" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J444" s="4">
+        <v>0.50486111111111109</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B445" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D445" s="1">
+        <v>4</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F445" s="1">
+        <v>2</v>
+      </c>
+      <c r="G445" s="6">
+        <v>75</v>
+      </c>
+      <c r="H445" s="1">
+        <v>58.2</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J445" s="4">
+        <v>0.50555555555555554</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A446" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B446" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D446" s="1">
+        <v>4</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F446" s="1">
+        <v>2</v>
+      </c>
+      <c r="G446" s="6">
+        <v>100</v>
+      </c>
+      <c r="H446" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J446" s="4">
+        <v>0.50555555555555554</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A447" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B447" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D447" s="1">
+        <v>4</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F447" s="1">
+        <v>3</v>
+      </c>
+      <c r="G447" s="5">
+        <v>0</v>
+      </c>
+      <c r="H447" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J447" s="4">
+        <v>0.50763888888888886</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B448" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D448" s="1">
+        <v>4</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F448" s="1">
+        <v>3</v>
+      </c>
+      <c r="G448" s="6">
+        <v>25</v>
+      </c>
+      <c r="H448" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J448" s="4">
+        <v>0.50763888888888886</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A449" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B449" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D449" s="1">
+        <v>4</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F449" s="1">
+        <v>3</v>
+      </c>
+      <c r="G449" s="6">
+        <v>50</v>
+      </c>
+      <c r="H449" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="I449" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J449" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B450" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D450" s="1">
+        <v>4</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F450" s="1">
+        <v>3</v>
+      </c>
+      <c r="G450" s="6">
+        <v>75</v>
+      </c>
+      <c r="H450" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J450" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B451" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D451" s="1">
+        <v>4</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F451" s="1">
+        <v>3</v>
+      </c>
+      <c r="G451" s="6">
+        <v>100</v>
+      </c>
+      <c r="H451" s="1">
+        <v>42.6</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J451" s="4">
+        <v>0.50624999999999998</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B452" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D452" s="1">
+        <v>4</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F452" s="1">
+        <v>3</v>
+      </c>
+      <c r="G452" s="5">
+        <v>0</v>
+      </c>
+      <c r="H452" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="I452" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J452" s="4">
+        <v>0.5083333333333333</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A453" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B453" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D453" s="1">
+        <v>4</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F453" s="1">
+        <v>3</v>
+      </c>
+      <c r="G453" s="6">
+        <v>25</v>
+      </c>
+      <c r="H453" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J453" s="4">
+        <v>0.50902777777777775</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A454" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B454" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D454" s="1">
+        <v>4</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F454" s="1">
+        <v>3</v>
+      </c>
+      <c r="G454" s="6">
+        <v>50</v>
+      </c>
+      <c r="H454" s="1">
+        <v>54.2</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J454" s="4">
+        <v>0.50902777777777775</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A455" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B455" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D455" s="1">
+        <v>4</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F455" s="1">
+        <v>3</v>
+      </c>
+      <c r="G455" s="6">
+        <v>75</v>
+      </c>
+      <c r="H455" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="I455" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J455" s="4">
+        <v>0.50902777777777775</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A456" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B456" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D456" s="1">
+        <v>4</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F456" s="1">
+        <v>3</v>
+      </c>
+      <c r="G456" s="6">
+        <v>100</v>
+      </c>
+      <c r="H456" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="I456" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J456" s="4">
+        <v>0.50972222222222219</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B457" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D457" s="1">
+        <v>4</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F457" s="1">
+        <v>2</v>
+      </c>
+      <c r="G457" s="5">
+        <v>0</v>
+      </c>
+      <c r="H457" s="1">
+        <v>58.4</v>
+      </c>
+      <c r="I457" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J457" s="4">
+        <v>0.51250000000000007</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B458" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D458" s="1">
+        <v>4</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F458" s="1">
+        <v>2</v>
+      </c>
+      <c r="G458" s="6">
+        <v>25</v>
+      </c>
+      <c r="H458" s="1">
+        <v>58.4</v>
+      </c>
+      <c r="I458" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J458" s="4">
+        <v>0.51180555555555551</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B459" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D459" s="1">
+        <v>4</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F459" s="1">
+        <v>2</v>
+      </c>
+      <c r="G459" s="6">
+        <v>50</v>
+      </c>
+      <c r="H459" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="I459" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J459" s="4">
+        <v>0.51180555555555551</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B460" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D460" s="1">
+        <v>4</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F460" s="1">
+        <v>2</v>
+      </c>
+      <c r="G460" s="6">
+        <v>75</v>
+      </c>
+      <c r="H460" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="I460" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J460" s="4">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A461" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B461" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D461" s="1">
+        <v>4</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F461" s="1">
+        <v>2</v>
+      </c>
+      <c r="G461" s="5">
+        <v>100</v>
+      </c>
+      <c r="H461" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="I461" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J461" s="4">
+        <v>0.51111111111111118</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A462" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B462" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D462" s="1">
+        <v>4</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F462" s="1">
+        <v>1</v>
+      </c>
+      <c r="G462" s="5">
+        <v>0</v>
+      </c>
+      <c r="H462" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J462" s="4">
+        <v>0.5131944444444444</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B463" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D463" s="1">
+        <v>4</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F463" s="1">
+        <v>1</v>
+      </c>
+      <c r="G463" s="5">
+        <v>25</v>
+      </c>
+      <c r="H463" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J463" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B464" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D464" s="1">
+        <v>4</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F464" s="1">
+        <v>1</v>
+      </c>
+      <c r="G464" s="5">
+        <v>50</v>
+      </c>
+      <c r="H464" s="1">
+        <v>54.2</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J464" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A465" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B465" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D465" s="1">
+        <v>4</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F465" s="1">
+        <v>1</v>
+      </c>
+      <c r="G465" s="5">
+        <v>75</v>
+      </c>
+      <c r="H465" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J465" s="4">
+        <v>0.51458333333333328</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B466" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D466" s="1">
+        <v>4</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F466" s="1">
+        <v>1</v>
+      </c>
+      <c r="G466" s="5">
+        <v>100</v>
+      </c>
+      <c r="H466" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J466" s="4">
+        <v>0.51458333333333328</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B467" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D467" s="1">
+        <v>4</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F467" s="1">
+        <v>2</v>
+      </c>
+      <c r="G467" s="5">
+        <v>0</v>
+      </c>
+      <c r="H467" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="I467" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J467" s="4">
+        <v>0.5180555555555556</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B468" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D468" s="1">
+        <v>4</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F468" s="1">
+        <v>2</v>
+      </c>
+      <c r="G468" s="6">
+        <v>25</v>
+      </c>
+      <c r="H468" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J468" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A469" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B469" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D469" s="1">
+        <v>4</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F469" s="1">
+        <v>2</v>
+      </c>
+      <c r="G469" s="6">
+        <v>50</v>
+      </c>
+      <c r="H469" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J469" s="4">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B470" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D470" s="1">
+        <v>4</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F470" s="1">
+        <v>2</v>
+      </c>
+      <c r="G470" s="6">
+        <v>75</v>
+      </c>
+      <c r="H470" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J470" s="4">
+        <v>0.51666666666666672</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B471" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D471" s="1">
+        <v>4</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F471" s="1">
+        <v>2</v>
+      </c>
+      <c r="G471" s="6">
+        <v>100</v>
+      </c>
+      <c r="H471" s="1">
+        <v>50</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J471" s="4">
+        <v>0.51527777777777783</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B472" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D472" s="1">
+        <v>4</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F472" s="1">
+        <v>1</v>
+      </c>
+      <c r="G472" s="5">
+        <v>0</v>
+      </c>
+      <c r="H472" s="1">
+        <v>54</v>
+      </c>
+      <c r="I472" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J472" s="4">
+        <v>0.51874999999999993</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B473" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D473" s="1">
+        <v>4</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F473" s="1">
+        <v>1</v>
+      </c>
+      <c r="G473" s="6">
+        <v>25</v>
+      </c>
+      <c r="H473" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J473" s="4">
+        <v>0.51874999999999993</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B474" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D474" s="1">
+        <v>4</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F474" s="1">
+        <v>1</v>
+      </c>
+      <c r="G474" s="6">
+        <v>50</v>
+      </c>
+      <c r="H474" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J474" s="4">
+        <v>0.51944444444444449</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B475" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D475" s="1">
+        <v>4</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F475" s="1">
+        <v>1</v>
+      </c>
+      <c r="G475" s="6">
+        <v>75</v>
+      </c>
+      <c r="H475" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J475" s="4">
+        <v>0.51944444444444449</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B476" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D476" s="1">
+        <v>4</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F476" s="1">
+        <v>1</v>
+      </c>
+      <c r="G476" s="6">
+        <v>100</v>
+      </c>
+      <c r="H476" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="I476" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J476" s="4">
+        <v>0.52013888888888882</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B477" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D477" s="1">
+        <v>4</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F477" s="1">
+        <v>3</v>
+      </c>
+      <c r="G477" s="5">
+        <v>0</v>
+      </c>
+      <c r="H477" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J477" s="4">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B478" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D478" s="1">
+        <v>4</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F478" s="1">
+        <v>3</v>
+      </c>
+      <c r="G478" s="6">
+        <v>25</v>
+      </c>
+      <c r="H478" s="1">
+        <v>50</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J478" s="4">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B479" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D479" s="1">
+        <v>4</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F479" s="1">
+        <v>3</v>
+      </c>
+      <c r="G479" s="6">
+        <v>50</v>
+      </c>
+      <c r="H479" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J479" s="4">
+        <v>0.5229166666666667</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B480" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D480" s="1">
+        <v>4</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F480" s="1">
+        <v>3</v>
+      </c>
+      <c r="G480" s="6">
+        <v>75</v>
+      </c>
+      <c r="H480" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J480" s="4">
+        <v>0.52222222222222225</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B481" s="3">
+        <v>43620</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D481" s="1">
+        <v>4</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F481" s="1">
+        <v>3</v>
+      </c>
+      <c r="G481" s="6">
+        <v>100</v>
+      </c>
+      <c r="H481" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J481" s="4">
+        <v>0.10347222222222223</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A482" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B482" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D482" s="1">
+        <v>4</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F482" s="1">
+        <v>3</v>
+      </c>
+      <c r="G482" s="1">
+        <v>0</v>
+      </c>
+      <c r="H482" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="I482" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J482" s="4">
+        <v>0.43472222222222223</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A483" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B483" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D483" s="1">
+        <v>4</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F483" s="1">
+        <v>3</v>
+      </c>
+      <c r="G483" s="1">
+        <v>25</v>
+      </c>
+      <c r="H483" s="1">
+        <v>50</v>
+      </c>
+      <c r="I483" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J483" s="4">
+        <v>0.43402777777777773</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A484" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B484" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D484" s="1">
+        <v>4</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F484" s="1">
+        <v>3</v>
+      </c>
+      <c r="G484" s="1">
+        <v>50</v>
+      </c>
+      <c r="H484" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="I484" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J484" s="4">
+        <v>0.43402777777777773</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B485" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D485" s="1">
+        <v>4</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F485" s="1">
+        <v>3</v>
+      </c>
+      <c r="G485" s="1">
+        <v>75</v>
+      </c>
+      <c r="H485" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="I485" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J485" s="4">
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B486" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D486" s="1">
+        <v>4</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F486" s="1">
+        <v>3</v>
+      </c>
+      <c r="G486" s="1">
+        <v>100</v>
+      </c>
+      <c r="H486" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="I486" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J486" s="4">
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B487" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D487" s="1">
+        <v>4</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F487" s="1">
+        <v>1</v>
+      </c>
+      <c r="G487" s="1">
+        <v>0</v>
+      </c>
+      <c r="H487" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J487" s="4">
+        <v>0.43541666666666662</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A488" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B488" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D488" s="1">
+        <v>4</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F488" s="1">
+        <v>1</v>
+      </c>
+      <c r="G488" s="1">
+        <v>25</v>
+      </c>
+      <c r="H488" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="I488" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J488" s="4">
+        <v>0.43541666666666662</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A489" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B489" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D489" s="1">
+        <v>4</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F489" s="1">
+        <v>1</v>
+      </c>
+      <c r="G489" s="1">
+        <v>50</v>
+      </c>
+      <c r="H489" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J489" s="4">
+        <v>0.43611111111111112</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A490" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B490" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D490" s="1">
+        <v>4</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F490" s="1">
+        <v>1</v>
+      </c>
+      <c r="G490" s="1">
+        <v>75</v>
+      </c>
+      <c r="H490" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="I490" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J490" s="4">
+        <v>0.43611111111111112</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B491" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D491" s="1">
+        <v>4</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F491" s="1">
+        <v>1</v>
+      </c>
+      <c r="G491" s="1">
+        <v>100</v>
+      </c>
+      <c r="H491" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="I491" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J491" s="4">
+        <v>0.4368055555555555</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B492" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D492" s="1">
+        <v>4</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F492" s="1">
+        <v>2</v>
+      </c>
+      <c r="G492" s="1">
+        <v>0</v>
+      </c>
+      <c r="H492" s="1">
+        <v>48.1</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J492" s="4">
+        <v>0.43888888888888888</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B493" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D493" s="1">
+        <v>4</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F493" s="1">
+        <v>2</v>
+      </c>
+      <c r="G493" s="1">
+        <v>25</v>
+      </c>
+      <c r="H493" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J493" s="4">
+        <v>0.43888888888888888</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B494" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D494" s="1">
+        <v>4</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F494" s="1">
+        <v>2</v>
+      </c>
+      <c r="G494" s="1">
+        <v>50</v>
+      </c>
+      <c r="H494" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="I494" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J494" s="4">
+        <v>2.1527777777777781E-2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B495" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D495" s="1">
+        <v>4</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F495" s="1">
+        <v>2</v>
+      </c>
+      <c r="G495" s="1">
+        <v>75</v>
+      </c>
+      <c r="H495" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J495" s="4">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B496" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D496" s="1">
+        <v>4</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F496" s="1">
+        <v>2</v>
+      </c>
+      <c r="G496" s="1">
+        <v>100</v>
+      </c>
+      <c r="H496" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="I496" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J496" s="4">
+        <v>0.4368055555555555</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B497" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D497" s="1">
+        <v>4</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F497" s="1">
+        <v>3</v>
+      </c>
+      <c r="G497" s="5">
+        <v>0</v>
+      </c>
+      <c r="H497" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="I497" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J497" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B498" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D498" s="1">
+        <v>4</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F498" s="1">
+        <v>3</v>
+      </c>
+      <c r="G498" s="6">
+        <v>25</v>
+      </c>
+      <c r="H498" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="I498" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J498" s="4">
+        <v>0.45416666666666666</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B499" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D499" s="1">
+        <v>4</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F499" s="1">
+        <v>3</v>
+      </c>
+      <c r="G499" s="6">
+        <v>50</v>
+      </c>
+      <c r="H499" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J499" s="4">
+        <v>0.45416666666666666</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B500" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D500" s="1">
+        <v>4</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F500" s="1">
+        <v>3</v>
+      </c>
+      <c r="G500" s="6">
+        <v>75</v>
+      </c>
+      <c r="H500" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="I500" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J500" s="4">
+        <v>0.45347222222222222</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B501" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D501" s="1">
+        <v>4</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F501" s="1">
+        <v>3</v>
+      </c>
+      <c r="G501" s="6">
+        <v>100</v>
+      </c>
+      <c r="H501" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="I501" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J501" s="4">
+        <v>0.45277777777777778</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B502" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D502" s="1">
+        <v>4</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F502" s="1">
+        <v>2</v>
+      </c>
+      <c r="G502" s="5">
+        <v>0</v>
+      </c>
+      <c r="H502" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J502" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B503" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D503" s="1">
+        <v>4</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F503" s="1">
+        <v>2</v>
+      </c>
+      <c r="G503" s="6">
+        <v>25</v>
+      </c>
+      <c r="H503" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J503" s="4">
+        <v>0.45555555555555555</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B504" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D504" s="1">
+        <v>4</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F504" s="1">
+        <v>2</v>
+      </c>
+      <c r="G504" s="6">
+        <v>50</v>
+      </c>
+      <c r="H504" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J504" s="4">
+        <v>0.45624999999999999</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B505" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D505" s="1">
+        <v>4</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F505" s="1">
+        <v>2</v>
+      </c>
+      <c r="G505" s="6">
+        <v>75</v>
+      </c>
+      <c r="H505" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J505" s="4">
+        <v>0.45624999999999999</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B506" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D506" s="1">
+        <v>4</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F506" s="1">
+        <v>2</v>
+      </c>
+      <c r="G506" s="6">
+        <v>100</v>
+      </c>
+      <c r="H506" s="1">
+        <v>48</v>
+      </c>
+      <c r="I506" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J506" s="4">
+        <v>0.45624999999999999</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B507" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D507" s="1">
+        <v>4</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F507" s="1">
+        <v>1</v>
+      </c>
+      <c r="G507" s="5">
+        <v>0</v>
+      </c>
+      <c r="H507" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="I507" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J507" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B508" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D508" s="1">
+        <v>4</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F508" s="1">
+        <v>1</v>
+      </c>
+      <c r="G508" s="6">
+        <v>25</v>
+      </c>
+      <c r="H508" s="1">
+        <v>53</v>
+      </c>
+      <c r="I508" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J508" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B509" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D509" s="1">
+        <v>4</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F509" s="1">
+        <v>1</v>
+      </c>
+      <c r="G509" s="6">
+        <v>50</v>
+      </c>
+      <c r="H509" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="I509" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J509" s="4">
+        <v>0.45763888888888887</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B510" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D510" s="1">
+        <v>4</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F510" s="1">
+        <v>1</v>
+      </c>
+      <c r="G510" s="6">
+        <v>75</v>
+      </c>
+      <c r="H510" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="I510" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J510" s="4">
+        <v>0.45763888888888887</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B511" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D511" s="1">
+        <v>4</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F511" s="1">
+        <v>1</v>
+      </c>
+      <c r="G511" s="6">
+        <v>100</v>
+      </c>
+      <c r="H511" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J511" s="4">
+        <v>0.45694444444444443</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B512" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D512" s="1">
+        <v>4</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F512" s="1">
+        <v>1</v>
+      </c>
+      <c r="G512" s="5">
+        <v>0</v>
+      </c>
+      <c r="H512" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J512" s="4">
+        <v>0.4694444444444445</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B513" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D513" s="1">
+        <v>4</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F513" s="1">
+        <v>1</v>
+      </c>
+      <c r="G513" s="6">
+        <v>25</v>
+      </c>
+      <c r="H513" s="1">
+        <v>52</v>
+      </c>
+      <c r="I513" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J513" s="4">
+        <v>0.4694444444444445</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B514" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D514" s="1">
+        <v>4</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F514" s="1">
+        <v>1</v>
+      </c>
+      <c r="G514" s="6">
+        <v>50</v>
+      </c>
+      <c r="H514" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="I514" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J514" s="4">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B515" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D515" s="1">
+        <v>4</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F515" s="1">
+        <v>1</v>
+      </c>
+      <c r="G515" s="6">
+        <v>75</v>
+      </c>
+      <c r="H515" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="I515" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J515" s="4">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B516" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D516" s="1">
+        <v>4</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F516" s="1">
+        <v>1</v>
+      </c>
+      <c r="G516" s="6">
+        <v>100</v>
+      </c>
+      <c r="H516" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="I516" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J516" s="4">
+        <v>0.4680555555555555</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B517" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D517" s="1">
+        <v>4</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F517" s="1">
+        <v>2</v>
+      </c>
+      <c r="G517" s="5">
+        <v>0</v>
+      </c>
+      <c r="H517" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="I517" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J517" s="4">
+        <v>0.47013888888888888</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B518" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D518" s="1">
+        <v>4</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F518" s="1">
+        <v>2</v>
+      </c>
+      <c r="G518" s="6">
+        <v>25</v>
+      </c>
+      <c r="H518" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="I518" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J518" s="4">
+        <v>0.47083333333333338</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B519" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D519" s="1">
+        <v>4</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F519" s="1">
+        <v>2</v>
+      </c>
+      <c r="G519" s="6">
+        <v>50</v>
+      </c>
+      <c r="H519" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="I519" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J519" s="4">
+        <v>0.47083333333333338</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B520" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D520" s="1">
+        <v>4</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F520" s="1">
+        <v>2</v>
+      </c>
+      <c r="G520" s="6">
+        <v>75</v>
+      </c>
+      <c r="H520" s="1">
+        <v>54.2</v>
+      </c>
+      <c r="I520" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J520" s="4">
+        <v>0.47152777777777777</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B521" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D521" s="1">
+        <v>4</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F521" s="1">
+        <v>2</v>
+      </c>
+      <c r="G521" s="6">
+        <v>100</v>
+      </c>
+      <c r="H521" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="I521" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J521" s="4">
+        <v>0.47152777777777777</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B522" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D522" s="1">
+        <v>4</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F522" s="1">
+        <v>3</v>
+      </c>
+      <c r="G522" s="5">
+        <v>0</v>
+      </c>
+      <c r="H522" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J522" s="4">
+        <v>0.47361111111111115</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B523" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D523" s="1">
+        <v>4</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F523" s="1">
+        <v>3</v>
+      </c>
+      <c r="G523" s="6">
+        <v>25</v>
+      </c>
+      <c r="H523" s="1">
+        <v>48</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J523" s="4">
+        <v>0.47361111111111115</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B524" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D524" s="1">
+        <v>4</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F524" s="1">
+        <v>3</v>
+      </c>
+      <c r="G524" s="6">
+        <v>50</v>
+      </c>
+      <c r="H524" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J524" s="4">
+        <v>0.47291666666666665</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B525" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D525" s="1">
+        <v>4</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F525" s="1">
+        <v>3</v>
+      </c>
+      <c r="G525" s="6">
+        <v>75</v>
+      </c>
+      <c r="H525" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J525" s="4">
+        <v>0.47291666666666665</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B526" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D526" s="1">
+        <v>4</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F526" s="1">
+        <v>3</v>
+      </c>
+      <c r="G526" s="6">
+        <v>100</v>
+      </c>
+      <c r="H526" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J526" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B527" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D527" s="1">
+        <v>4</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F527" s="1">
+        <v>1</v>
+      </c>
+      <c r="G527" s="5">
+        <v>0</v>
+      </c>
+      <c r="H527" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J527" s="4">
+        <v>0.47847222222222219</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B528" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D528" s="1">
+        <v>4</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F528" s="1">
+        <v>1</v>
+      </c>
+      <c r="G528" s="6">
+        <v>25</v>
+      </c>
+      <c r="H528" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J528" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B529" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D529" s="1">
+        <v>4</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F529" s="1">
+        <v>1</v>
+      </c>
+      <c r="G529" s="6">
+        <v>50</v>
+      </c>
+      <c r="H529" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J529" s="4">
+        <v>0.47986111111111113</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B530" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D530" s="1">
+        <v>4</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F530" s="1">
+        <v>1</v>
+      </c>
+      <c r="G530" s="6">
+        <v>75</v>
+      </c>
+      <c r="H530" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J530" s="4">
+        <v>0.47986111111111113</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B531" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D531" s="1">
+        <v>4</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F531" s="1">
+        <v>1</v>
+      </c>
+      <c r="G531" s="6">
+        <v>100</v>
+      </c>
+      <c r="H531" s="1">
+        <v>47</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J531" s="4">
+        <v>0.48055555555555557</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B532" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D532" s="1">
+        <v>4</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F532" s="1">
+        <v>2</v>
+      </c>
+      <c r="G532" s="5">
+        <v>0</v>
+      </c>
+      <c r="H532" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J532" s="4">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B533" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D533" s="1">
+        <v>4</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F533" s="1">
+        <v>2</v>
+      </c>
+      <c r="G533" s="6">
+        <v>25</v>
+      </c>
+      <c r="H533" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J533" s="4">
+        <v>0.48194444444444445</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B534" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D534" s="1">
+        <v>4</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F534" s="1">
+        <v>2</v>
+      </c>
+      <c r="G534" s="6">
+        <v>50</v>
+      </c>
+      <c r="H534" s="1">
+        <v>44.3</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J534" s="4">
+        <v>0.48194444444444445</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B535" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D535" s="1">
+        <v>4</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F535" s="1">
+        <v>2</v>
+      </c>
+      <c r="G535" s="6">
+        <v>75</v>
+      </c>
+      <c r="H535" s="1">
+        <v>46.8</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J535" s="4">
+        <v>0.48194444444444445</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B536" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D536" s="1">
+        <v>4</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F536" s="1">
+        <v>2</v>
+      </c>
+      <c r="G536" s="6">
+        <v>100</v>
+      </c>
+      <c r="H536" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J536" s="4">
+        <v>0.48125000000000001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B537" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D537" s="1">
+        <v>4</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F537" s="1">
+        <v>3</v>
+      </c>
+      <c r="G537" s="5">
+        <v>0</v>
+      </c>
+      <c r="H537" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J537" s="4">
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B538" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D538" s="1">
+        <v>4</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F538" s="1">
+        <v>3</v>
+      </c>
+      <c r="G538" s="6">
+        <v>25</v>
+      </c>
+      <c r="H538" s="1">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J538" s="4">
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A539" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B539" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D539" s="1">
+        <v>4</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F539" s="1">
+        <v>3</v>
+      </c>
+      <c r="G539" s="6">
+        <v>50</v>
+      </c>
+      <c r="H539" s="1">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J539" s="4">
+        <v>0.48402777777777778</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A540" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B540" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D540" s="1">
+        <v>4</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F540" s="1">
+        <v>3</v>
+      </c>
+      <c r="G540" s="6">
+        <v>75</v>
+      </c>
+      <c r="H540" s="1">
+        <v>36.1</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J540" s="4">
+        <v>0.48402777777777778</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A541" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B541" s="3">
+        <v>43622</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D541" s="1">
+        <v>4</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F541" s="1">
+        <v>3</v>
+      </c>
+      <c r="G541" s="6">
+        <v>100</v>
+      </c>
+      <c r="H541" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J541" s="4">
+        <v>0.48472222222222222</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A542" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B542" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D542" s="1">
+        <v>3</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F542" s="1">
+        <v>3</v>
+      </c>
+      <c r="G542" s="5">
+        <v>0</v>
+      </c>
+      <c r="H542" s="1">
+        <v>39</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J542" s="4">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A543" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B543" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D543" s="1">
+        <v>3</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F543" s="1">
+        <v>3</v>
+      </c>
+      <c r="G543" s="6">
+        <v>25</v>
+      </c>
+      <c r="H543" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J543" s="4">
+        <v>0.4381944444444445</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B544" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D544" s="1">
+        <v>3</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F544" s="1">
+        <v>3</v>
+      </c>
+      <c r="G544" s="6">
+        <v>50</v>
+      </c>
+      <c r="H544" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J544" s="4">
+        <v>0.4381944444444445</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A545" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B545" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D545" s="1">
+        <v>3</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F545" s="1">
+        <v>3</v>
+      </c>
+      <c r="G545" s="6">
+        <v>75</v>
+      </c>
+      <c r="H545" s="1">
+        <v>46</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J545" s="4">
+        <v>0.43888888888888888</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A546" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B546" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D546" s="1">
+        <v>3</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F546" s="1">
+        <v>3</v>
+      </c>
+      <c r="G546" s="6">
+        <v>100</v>
+      </c>
+      <c r="H546" s="1">
+        <v>27</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J546" s="4">
+        <v>0.43958333333333338</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B547" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D547" s="1">
+        <v>3</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F547" s="1">
+        <v>2</v>
+      </c>
+      <c r="G547" s="5">
+        <v>0</v>
+      </c>
+      <c r="H547" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J547" s="4">
+        <v>0.44166666666666665</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B548" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D548" s="1">
+        <v>3</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F548" s="1">
+        <v>2</v>
+      </c>
+      <c r="G548" s="6">
+        <v>25</v>
+      </c>
+      <c r="H548" s="1">
+        <v>40</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J548" s="4">
+        <v>0.44166666666666665</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B549" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D549" s="1">
+        <v>3</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F549" s="1">
+        <v>2</v>
+      </c>
+      <c r="G549" s="6">
+        <v>50</v>
+      </c>
+      <c r="H549" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J549" s="4">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B550" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D550" s="1">
+        <v>3</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F550" s="1">
+        <v>2</v>
+      </c>
+      <c r="G550" s="6">
+        <v>75</v>
+      </c>
+      <c r="H550" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J550" s="4">
+        <v>0.44027777777777777</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B551" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D551" s="1">
+        <v>3</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F551" s="1">
+        <v>2</v>
+      </c>
+      <c r="G551" s="6">
+        <v>100</v>
+      </c>
+      <c r="H551" s="1">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="I551" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J551" s="4">
+        <v>0.44027777777777777</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B552" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D552" s="1">
+        <v>3</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F552" s="1">
+        <v>1</v>
+      </c>
+      <c r="G552" s="5">
+        <v>0</v>
+      </c>
+      <c r="H552" s="1">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I552" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J552" s="4">
+        <v>0.44305555555555554</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B553" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D553" s="1">
+        <v>3</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F553" s="1">
+        <v>1</v>
+      </c>
+      <c r="G553" s="6">
+        <v>25</v>
+      </c>
+      <c r="H553" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J553" s="4">
+        <v>0.44305555555555554</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B554" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D554" s="1">
+        <v>3</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F554" s="1">
+        <v>1</v>
+      </c>
+      <c r="G554" s="6">
+        <v>50</v>
+      </c>
+      <c r="H554" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J554" s="4">
+        <v>0.44375000000000003</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A555" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B555" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D555" s="1">
+        <v>3</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F555" s="1">
+        <v>1</v>
+      </c>
+      <c r="G555" s="6">
+        <v>75</v>
+      </c>
+      <c r="H555" s="1">
+        <v>47</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J555" s="4">
+        <v>0.44375000000000003</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B556" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D556" s="1">
+        <v>3</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F556" s="1">
+        <v>1</v>
+      </c>
+      <c r="G556" s="6">
+        <v>100</v>
+      </c>
+      <c r="H556" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="I556" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J556" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B557" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D557" s="1">
+        <v>3</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F557" s="1">
+        <v>1</v>
+      </c>
+      <c r="G557" s="5">
+        <v>0</v>
+      </c>
+      <c r="H557" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="I557" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J557" s="4">
+        <v>0.44722222222222219</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B558" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D558" s="1">
+        <v>3</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F558" s="1">
+        <v>1</v>
+      </c>
+      <c r="G558" s="6">
+        <v>25</v>
+      </c>
+      <c r="H558" s="1">
+        <v>25.1</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J558" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B559" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D559" s="1">
+        <v>3</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F559" s="1">
+        <v>1</v>
+      </c>
+      <c r="G559" s="6">
+        <v>50</v>
+      </c>
+      <c r="H559" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J559" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A560" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B560" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D560" s="1">
+        <v>3</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F560" s="1">
+        <v>1</v>
+      </c>
+      <c r="G560" s="6">
+        <v>75</v>
+      </c>
+      <c r="H560" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J560" s="4">
+        <v>0.44861111111111113</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A561" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B561" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D561" s="1">
+        <v>3</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F561" s="1">
+        <v>1</v>
+      </c>
+      <c r="G561" s="6">
+        <v>100</v>
+      </c>
+      <c r="H561" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="I561" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J561" s="4">
+        <v>0.44930555555555557</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A562" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B562" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D562" s="1">
+        <v>3</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F562" s="1">
+        <v>2</v>
+      </c>
+      <c r="G562" s="5">
+        <v>0</v>
+      </c>
+      <c r="H562" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="I562" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J562" s="4">
+        <v>0.45069444444444445</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A563" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B563" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D563" s="1">
+        <v>3</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F563" s="1">
+        <v>2</v>
+      </c>
+      <c r="G563" s="6">
+        <v>25</v>
+      </c>
+      <c r="H563" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="I563" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J563" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B564" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D564" s="1">
+        <v>3</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F564" s="1">
+        <v>2</v>
+      </c>
+      <c r="G564" s="6">
+        <v>50</v>
+      </c>
+      <c r="H564" s="1">
+        <v>47.6</v>
+      </c>
+      <c r="I564" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J564" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A565" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B565" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D565" s="1">
+        <v>3</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F565" s="1">
+        <v>2</v>
+      </c>
+      <c r="G565" s="6">
+        <v>75</v>
+      </c>
+      <c r="H565" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="I565" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J565" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A566" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B566" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D566" s="1">
+        <v>3</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F566" s="1">
+        <v>2</v>
+      </c>
+      <c r="G566" s="6">
+        <v>100</v>
+      </c>
+      <c r="H566" s="1">
+        <v>43</v>
+      </c>
+      <c r="I566" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J566" s="4">
+        <v>0.44930555555555557</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A567" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B567" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D567" s="1">
+        <v>3</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F567" s="1">
+        <v>3</v>
+      </c>
+      <c r="G567" s="5">
+        <v>0</v>
+      </c>
+      <c r="H567" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="I567" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J567" s="4">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A568" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B568" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D568" s="1">
+        <v>3</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F568" s="1">
+        <v>3</v>
+      </c>
+      <c r="G568" s="6">
+        <v>25</v>
+      </c>
+      <c r="H568" s="1">
+        <v>44</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J568" s="4">
+        <v>0.45208333333333334</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A569" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B569" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D569" s="1">
+        <v>3</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F569" s="1">
+        <v>3</v>
+      </c>
+      <c r="G569" s="6">
+        <v>50</v>
+      </c>
+      <c r="H569" s="1">
+        <v>44</v>
+      </c>
+      <c r="I569" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J569" s="4">
+        <v>0.45208333333333334</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A570" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B570" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D570" s="1">
+        <v>3</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F570" s="1">
+        <v>3</v>
+      </c>
+      <c r="G570" s="6">
+        <v>75</v>
+      </c>
+      <c r="H570" s="1">
+        <v>462</v>
+      </c>
+      <c r="I570" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J570" s="4">
+        <v>0.45277777777777778</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A571" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B571" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D571" s="1">
+        <v>3</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F571" s="1">
+        <v>3</v>
+      </c>
+      <c r="G571" s="6">
+        <v>100</v>
+      </c>
+      <c r="H571" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="I571" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J571" s="4">
+        <v>0.45277777777777778</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A572" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B572" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D572" s="1">
+        <v>3</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F572" s="1">
+        <v>3</v>
+      </c>
+      <c r="G572" s="5">
+        <v>0</v>
+      </c>
+      <c r="H572" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="I572" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J572" s="4">
+        <v>0.46597222222222223</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A573" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B573" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D573" s="1">
+        <v>3</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F573" s="1">
+        <v>3</v>
+      </c>
+      <c r="G573" s="6">
+        <v>25</v>
+      </c>
+      <c r="H573" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J573" s="4">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A574" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B574" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D574" s="1">
+        <v>3</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F574" s="1">
+        <v>3</v>
+      </c>
+      <c r="G574" s="6">
+        <v>50</v>
+      </c>
+      <c r="H574" s="1">
+        <v>42.9</v>
+      </c>
+      <c r="I574" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J574" s="4">
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A575" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B575" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D575" s="1">
+        <v>3</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F575" s="1">
+        <v>3</v>
+      </c>
+      <c r="G575" s="6">
+        <v>75</v>
+      </c>
+      <c r="H575" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="I575" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J575" s="4">
+        <v>0.46736111111111112</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A576" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B576" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D576" s="1">
+        <v>3</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F576" s="1">
+        <v>3</v>
+      </c>
+      <c r="G576" s="6">
+        <v>100</v>
+      </c>
+      <c r="H576" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="I576" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J576" s="4">
+        <v>0.4680555555555555</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A577" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B577" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D577" s="1">
+        <v>3</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F577" s="1">
+        <v>2</v>
+      </c>
+      <c r="G577" s="5">
+        <v>0</v>
+      </c>
+      <c r="H577" s="1">
+        <v>39</v>
+      </c>
+      <c r="I577" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J577" s="4">
+        <v>0.4770833333333333</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A578" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B578" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D578" s="1">
+        <v>3</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F578" s="1">
+        <v>2</v>
+      </c>
+      <c r="G578" s="6">
+        <v>25</v>
+      </c>
+      <c r="H578" s="1">
+        <v>38.6</v>
+      </c>
+      <c r="I578" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J578" s="4">
+        <v>0.4694444444444445</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A579" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B579" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D579" s="1">
+        <v>3</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F579" s="1">
+        <v>2</v>
+      </c>
+      <c r="G579" s="6">
+        <v>50</v>
+      </c>
+      <c r="H579" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I579" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J579" s="4">
+        <v>0.4694444444444445</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A580" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B580" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D580" s="1">
+        <v>3</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F580" s="1">
+        <v>2</v>
+      </c>
+      <c r="G580" s="6">
+        <v>75</v>
+      </c>
+      <c r="H580" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="I580" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J580" s="4">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A581" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B581" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D581" s="1">
+        <v>3</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F581" s="1">
+        <v>2</v>
+      </c>
+      <c r="G581" s="6">
+        <v>100</v>
+      </c>
+      <c r="H581" s="1">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I581" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J581" s="4">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A582" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B582" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D582" s="1">
+        <v>3</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F582" s="1">
+        <v>1</v>
+      </c>
+      <c r="G582" s="5">
+        <v>0</v>
+      </c>
+      <c r="H582" s="1">
+        <v>38</v>
+      </c>
+      <c r="I582" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J582" s="4">
+        <v>0.47083333333333338</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B583" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D583" s="1">
+        <v>3</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F583" s="1">
+        <v>1</v>
+      </c>
+      <c r="G583" s="6">
+        <v>25</v>
+      </c>
+      <c r="H583" s="1">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="I583" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J583" s="4">
+        <v>0.47083333333333338</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A584" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B584" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D584" s="1">
+        <v>3</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F584" s="1">
+        <v>1</v>
+      </c>
+      <c r="G584" s="6">
+        <v>50</v>
+      </c>
+      <c r="H584" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="I584" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J584" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A585" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B585" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D585" s="1">
+        <v>3</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F585" s="1">
+        <v>1</v>
+      </c>
+      <c r="G585" s="6">
+        <v>75</v>
+      </c>
+      <c r="H585" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="I585" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J585" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A586" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B586" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D586" s="1">
+        <v>3</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F586" s="1">
+        <v>1</v>
+      </c>
+      <c r="G586" s="6">
+        <v>100</v>
+      </c>
+      <c r="H586" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J586" s="4">
+        <v>0.47291666666666665</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A587" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B587" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D587" s="1">
+        <v>3</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F587" s="1">
+        <v>3</v>
+      </c>
+      <c r="G587" s="5">
+        <v>0</v>
+      </c>
+      <c r="H587" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J587" s="4">
+        <v>0.48402777777777778</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A588" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B588" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D588" s="1">
+        <v>3</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F588" s="1">
+        <v>3</v>
+      </c>
+      <c r="G588" s="5">
+        <v>25</v>
+      </c>
+      <c r="H588" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="I588" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J588" s="4">
+        <v>0.48402777777777778</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B589" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D589" s="1">
+        <v>3</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F589" s="1">
+        <v>3</v>
+      </c>
+      <c r="G589" s="5">
+        <v>50</v>
+      </c>
+      <c r="H589" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="I589" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J589" s="4">
+        <v>0.48472222222222222</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A590" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B590" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D590" s="1">
+        <v>3</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F590" s="1">
+        <v>3</v>
+      </c>
+      <c r="G590" s="5">
+        <v>75</v>
+      </c>
+      <c r="H590" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="I590" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J590" s="4">
+        <v>0.48472222222222222</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A591" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B591" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D591" s="1">
+        <v>3</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F591" s="1">
+        <v>3</v>
+      </c>
+      <c r="G591" s="5">
+        <v>100</v>
+      </c>
+      <c r="H591" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J591" s="4">
+        <v>0.48541666666666666</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A592" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B592" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D592" s="1">
+        <v>3</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F592" s="1">
+        <v>2</v>
+      </c>
+      <c r="G592" s="5">
+        <v>0</v>
+      </c>
+      <c r="H592" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="I592" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J592" s="4">
+        <v>0.48819444444444443</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A593" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B593" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D593" s="1">
+        <v>3</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F593" s="1">
+        <v>2</v>
+      </c>
+      <c r="G593" s="5">
+        <v>25</v>
+      </c>
+      <c r="H593" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J593" s="4">
+        <v>0.48819444444444443</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A594" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B594" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D594" s="1">
+        <v>3</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F594" s="1">
+        <v>2</v>
+      </c>
+      <c r="G594" s="5">
+        <v>50</v>
+      </c>
+      <c r="H594" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="I594" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J594" s="4">
+        <v>0.48749999999999999</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A595" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B595" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D595" s="1">
+        <v>3</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F595" s="1">
+        <v>2</v>
+      </c>
+      <c r="G595" s="5">
+        <v>75</v>
+      </c>
+      <c r="H595" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="I595" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J595" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A596" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B596" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D596" s="1">
+        <v>3</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F596" s="1">
+        <v>2</v>
+      </c>
+      <c r="G596" s="5">
+        <v>100</v>
+      </c>
+      <c r="H596" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="I596" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J596" s="4">
+        <v>0.48680555555555555</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A597" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B597" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D597" s="1">
+        <v>3</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F597" s="1">
+        <v>1</v>
+      </c>
+      <c r="G597" s="5">
+        <v>0</v>
+      </c>
+      <c r="H597" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="I597" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J597" s="4">
+        <v>0.49583333333333335</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A598" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B598" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D598" s="1">
+        <v>3</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F598" s="1">
+        <v>1</v>
+      </c>
+      <c r="G598" s="5">
+        <v>25</v>
+      </c>
+      <c r="H598" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="I598" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J598" s="4">
+        <v>0.49583333333333335</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A599" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B599" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D599" s="1">
+        <v>3</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F599" s="1">
+        <v>1</v>
+      </c>
+      <c r="G599" s="5">
+        <v>50</v>
+      </c>
+      <c r="H599" s="1">
+        <v>52</v>
+      </c>
+      <c r="I599" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J599" s="4">
+        <v>0.49513888888888885</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A600" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B600" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D600" s="1">
+        <v>3</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F600" s="1">
+        <v>1</v>
+      </c>
+      <c r="G600" s="5">
+        <v>75</v>
+      </c>
+      <c r="H600" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J600" s="4">
+        <v>0.49513888888888885</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B601" s="3">
+        <v>43623</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D601" s="1">
+        <v>3</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F601" s="1">
+        <v>1</v>
+      </c>
+      <c r="G601" s="5">
+        <v>100</v>
+      </c>
+      <c r="H601" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J601" s="4">
+        <v>0.49444444444444446</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A602" s="1"/>
+      <c r="B602" s="1"/>
+      <c r="C602" s="1"/>
+      <c r="D602" s="1"/>
+      <c r="E602" s="1"/>
+      <c r="F602" s="1"/>
+      <c r="G602" s="1"/>
+      <c r="H602" s="1"/>
+      <c r="I602" s="1"/>
+      <c r="J602" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
